--- a/s60_signal/position-01288-601288.xlsx
+++ b/s60_signal/position-01288-601288.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="445">
   <si>
     <t>trade_time</t>
   </si>
@@ -979,6 +979,9 @@
     <t>2021-07-12</t>
   </si>
   <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
     <t>2021-07-07</t>
   </si>
   <si>
@@ -1345,9 +1348,6 @@
     <t>2021-04-13</t>
   </si>
   <si>
-    <t>2021-07-02</t>
-  </si>
-  <si>
     <t>2021-07-05</t>
   </si>
 </sst>
@@ -1706,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1211"/>
+  <dimension ref="A1:P1210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6756,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6806,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7256,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7406,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7556,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8006,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8056,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8256,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8456,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8506,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8606,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9156,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9256,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9306,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9406,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9506,7 +9506,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9556,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9806,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9856,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10656,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10756,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11056,7 +11056,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11156,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11206,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11306,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11506,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11606,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11656,7 +11656,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11756,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11806,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11906,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11956,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12006,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12156,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12206,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12356,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12406,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12456,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12506,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12856,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13156,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13206,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13256,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13306,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13406,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13456,7 +13456,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13606,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13706,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13756,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13856,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13906,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13956,7 +13956,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14006,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14056,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14156,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14206,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14556,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14656,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14756,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14856,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14906,7 +14906,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14956,7 +14956,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -15006,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -15056,7 +15056,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15506,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15606,7 +15606,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15656,7 +15656,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15706,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15756,7 +15756,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15806,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15856,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15906,7 +15906,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15956,7 +15956,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -16006,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -16056,7 +16056,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -17156,7 +17156,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17256,7 +17256,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17306,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17356,7 +17356,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17406,7 +17406,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17506,7 +17506,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17606,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -20306,7 +20306,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20356,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20406,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20456,7 +20456,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20506,7 +20506,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20556,7 +20556,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20606,7 +20606,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20656,7 +20656,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20706,7 +20706,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20756,7 +20756,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20806,7 +20806,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20856,7 +20856,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -24156,7 +24156,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24206,7 +24206,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24256,7 +24256,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -24306,7 +24306,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24356,7 +24356,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24406,7 +24406,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24506,7 +24506,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24556,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24606,7 +24606,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24656,7 +24656,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24706,7 +24706,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24756,7 +24756,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24806,7 +24806,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -24856,7 +24856,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -24906,7 +24906,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -24956,7 +24956,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -25006,7 +25006,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25056,7 +25056,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25106,7 +25106,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25156,7 +25156,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25206,7 +25206,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -25256,7 +25256,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -25306,7 +25306,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25356,7 +25356,7 @@
         <v>1</v>
       </c>
       <c r="P473" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="P474" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25506,7 +25506,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25556,7 +25556,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25606,7 +25606,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25656,7 +25656,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25706,7 +25706,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25756,7 +25756,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25806,7 +25806,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25856,7 +25856,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -25906,7 +25906,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -25956,7 +25956,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26006,7 +26006,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26056,7 +26056,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26106,7 +26106,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -26156,7 +26156,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -26206,7 +26206,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -26256,7 +26256,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -26306,7 +26306,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -26356,7 +26356,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -26406,7 +26406,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26456,7 +26456,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26506,7 +26506,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26556,7 +26556,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26606,7 +26606,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26656,7 +26656,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26706,7 +26706,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26756,7 +26756,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26806,7 +26806,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -26856,7 +26856,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -26906,7 +26906,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -26956,7 +26956,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27006,7 +27006,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27056,7 +27056,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27106,7 +27106,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27156,7 +27156,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27206,7 +27206,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -27256,7 +27256,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -27306,7 +27306,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -27356,7 +27356,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -27456,7 +27456,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -27506,7 +27506,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -27556,7 +27556,7 @@
         <v>1</v>
       </c>
       <c r="P517" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -27606,7 +27606,7 @@
         <v>1</v>
       </c>
       <c r="P518" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -27656,7 +27656,7 @@
         <v>1</v>
       </c>
       <c r="P519" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -27706,7 +27706,7 @@
         <v>1</v>
       </c>
       <c r="P520" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -27756,7 +27756,7 @@
         <v>1</v>
       </c>
       <c r="P521" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -27806,7 +27806,7 @@
         <v>1</v>
       </c>
       <c r="P522" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -27856,7 +27856,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -27906,7 +27906,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -27956,7 +27956,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -28006,7 +28006,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -28056,7 +28056,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -28106,7 +28106,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -28156,7 +28156,7 @@
         <v>1</v>
       </c>
       <c r="P529" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -28206,7 +28206,7 @@
         <v>1</v>
       </c>
       <c r="P530" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -28256,7 +28256,7 @@
         <v>1</v>
       </c>
       <c r="P531" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -28306,7 +28306,7 @@
         <v>1</v>
       </c>
       <c r="P532" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -28356,7 +28356,7 @@
         <v>1</v>
       </c>
       <c r="P533" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -28406,7 +28406,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -28456,7 +28456,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -28956,7 +28956,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -29006,7 +29006,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -29056,7 +29056,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -29106,7 +29106,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -29156,7 +29156,7 @@
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -29206,7 +29206,7 @@
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -29256,7 +29256,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -29306,7 +29306,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29356,7 +29356,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -29406,7 +29406,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -29456,7 +29456,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -29506,7 +29506,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29556,7 +29556,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29606,7 +29606,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29656,7 +29656,7 @@
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29706,7 +29706,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29756,7 +29756,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -29806,7 +29806,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -29856,7 +29856,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -29906,7 +29906,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -29956,7 +29956,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30006,7 +30006,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30056,7 +30056,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30106,7 +30106,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30356,7 +30356,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30406,7 +30406,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30456,7 +30456,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30506,7 +30506,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30556,7 +30556,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30606,7 +30606,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30656,7 +30656,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30706,7 +30706,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30756,7 +30756,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30806,7 +30806,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31106,7 +31106,7 @@
         <v>1</v>
       </c>
       <c r="P588" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31156,7 +31156,7 @@
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31206,7 +31206,7 @@
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31256,7 +31256,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31306,7 +31306,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31356,7 +31356,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -31406,7 +31406,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -31456,7 +31456,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -31506,7 +31506,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -31656,7 +31656,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -31706,7 +31706,7 @@
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -31806,7 +31806,7 @@
         <v>1</v>
       </c>
       <c r="P602" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="603" spans="1:16">
@@ -31856,7 +31856,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -31956,7 +31956,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -32006,7 +32006,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32056,7 +32056,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32106,7 +32106,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32156,7 +32156,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32206,7 +32206,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32256,7 +32256,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32306,7 +32306,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32356,7 +32356,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32406,7 +32406,7 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32456,7 +32456,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32506,7 +32506,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32556,7 +32556,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32606,7 +32606,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32656,7 +32656,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32706,7 +32706,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -33106,7 +33106,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33156,7 +33156,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33206,7 +33206,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33256,7 +33256,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33306,7 +33306,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33356,7 +33356,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33406,7 +33406,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -34106,7 +34106,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -34156,7 +34156,7 @@
         <v>1</v>
       </c>
       <c r="P649" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="650" spans="1:16">
@@ -34206,7 +34206,7 @@
         <v>1</v>
       </c>
       <c r="P650" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="651" spans="1:16">
@@ -34256,7 +34256,7 @@
         <v>1</v>
       </c>
       <c r="P651" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="652" spans="1:16">
@@ -34306,7 +34306,7 @@
         <v>1</v>
       </c>
       <c r="P652" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="653" spans="1:16">
@@ -34356,7 +34356,7 @@
         <v>1</v>
       </c>
       <c r="P653" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="654" spans="1:16">
@@ -34406,7 +34406,7 @@
         <v>1</v>
       </c>
       <c r="P654" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="655" spans="1:16">
@@ -35156,7 +35156,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35206,7 +35206,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35256,7 +35256,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35306,7 +35306,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35356,7 +35356,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35406,7 +35406,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35456,7 +35456,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -35506,7 +35506,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -35556,7 +35556,7 @@
         <v>1</v>
       </c>
       <c r="P677" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -35606,7 +35606,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -35656,7 +35656,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -35706,7 +35706,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -35756,7 +35756,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -35806,7 +35806,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -35856,7 +35856,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -36106,7 +36106,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36156,7 +36156,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36206,7 +36206,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36256,7 +36256,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -36306,7 +36306,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36356,7 +36356,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -36406,7 +36406,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -36456,7 +36456,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -36506,7 +36506,7 @@
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -36556,7 +36556,7 @@
         <v>1</v>
       </c>
       <c r="P697" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -36606,7 +36606,7 @@
         <v>1</v>
       </c>
       <c r="P698" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -36656,7 +36656,7 @@
         <v>1</v>
       </c>
       <c r="P699" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -36706,7 +36706,7 @@
         <v>1</v>
       </c>
       <c r="P700" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -36756,7 +36756,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -36806,7 +36806,7 @@
         <v>1</v>
       </c>
       <c r="P702" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -38356,7 +38356,7 @@
         <v>1</v>
       </c>
       <c r="P733" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -38406,7 +38406,7 @@
         <v>1</v>
       </c>
       <c r="P734" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -38456,7 +38456,7 @@
         <v>1</v>
       </c>
       <c r="P735" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -38506,7 +38506,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -38556,7 +38556,7 @@
         <v>1</v>
       </c>
       <c r="P737" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -38856,7 +38856,7 @@
         <v>1</v>
       </c>
       <c r="P743" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="744" spans="1:16">
@@ -38906,7 +38906,7 @@
         <v>1</v>
       </c>
       <c r="P744" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -38956,7 +38956,7 @@
         <v>1</v>
       </c>
       <c r="P745" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -39006,7 +39006,7 @@
         <v>1</v>
       </c>
       <c r="P746" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -39056,7 +39056,7 @@
         <v>1</v>
       </c>
       <c r="P747" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -39106,7 +39106,7 @@
         <v>1</v>
       </c>
       <c r="P748" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -39156,7 +39156,7 @@
         <v>1</v>
       </c>
       <c r="P749" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39206,7 +39206,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39256,7 +39256,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39306,7 +39306,7 @@
         <v>1</v>
       </c>
       <c r="P752" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -39356,7 +39356,7 @@
         <v>1</v>
       </c>
       <c r="P753" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -39406,7 +39406,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -39456,7 +39456,7 @@
         <v>1</v>
       </c>
       <c r="P755" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -39506,7 +39506,7 @@
         <v>1</v>
       </c>
       <c r="P756" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -39556,7 +39556,7 @@
         <v>1</v>
       </c>
       <c r="P757" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -39606,7 +39606,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -40256,7 +40256,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -40306,7 +40306,7 @@
         <v>1</v>
       </c>
       <c r="P772" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -40356,7 +40356,7 @@
         <v>1</v>
       </c>
       <c r="P773" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -40406,7 +40406,7 @@
         <v>1</v>
       </c>
       <c r="P774" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -40456,7 +40456,7 @@
         <v>1</v>
       </c>
       <c r="P775" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="776" spans="1:16">
@@ -40506,7 +40506,7 @@
         <v>1</v>
       </c>
       <c r="P776" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -40556,7 +40556,7 @@
         <v>1</v>
       </c>
       <c r="P777" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -40606,7 +40606,7 @@
         <v>1</v>
       </c>
       <c r="P778" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -40656,7 +40656,7 @@
         <v>1</v>
       </c>
       <c r="P779" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -40706,7 +40706,7 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -40756,7 +40756,7 @@
         <v>1</v>
       </c>
       <c r="P781" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -40806,7 +40806,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -41956,7 +41956,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -42006,7 +42006,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -42056,7 +42056,7 @@
         <v>1</v>
       </c>
       <c r="P807" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -42106,7 +42106,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -42156,7 +42156,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42206,7 +42206,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42256,7 +42256,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -42306,7 +42306,7 @@
         <v>1</v>
       </c>
       <c r="P812" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -42356,7 +42356,7 @@
         <v>1</v>
       </c>
       <c r="P813" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -42406,7 +42406,7 @@
         <v>1</v>
       </c>
       <c r="P814" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="815" spans="1:16">
@@ -42456,7 +42456,7 @@
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -42506,7 +42506,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -42556,7 +42556,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -43706,7 +43706,7 @@
         <v>1</v>
       </c>
       <c r="P840" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -43806,7 +43806,7 @@
         <v>1</v>
       </c>
       <c r="P842" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="843" spans="1:16">
@@ -43856,7 +43856,7 @@
         <v>1</v>
       </c>
       <c r="P843" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="844" spans="1:16">
@@ -43956,7 +43956,7 @@
         <v>1</v>
       </c>
       <c r="P845" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="846" spans="1:16">
@@ -44056,7 +44056,7 @@
         <v>1</v>
       </c>
       <c r="P847" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="848" spans="1:16">
@@ -44106,7 +44106,7 @@
         <v>1</v>
       </c>
       <c r="P848" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -44956,7 +44956,7 @@
         <v>1</v>
       </c>
       <c r="P865" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="866" spans="1:16">
@@ -45006,7 +45006,7 @@
         <v>1</v>
       </c>
       <c r="P866" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -45056,7 +45056,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -45106,7 +45106,7 @@
         <v>1</v>
       </c>
       <c r="P868" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -45156,7 +45156,7 @@
         <v>1</v>
       </c>
       <c r="P869" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -45206,7 +45206,7 @@
         <v>1</v>
       </c>
       <c r="P870" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="871" spans="1:16">
@@ -45256,7 +45256,7 @@
         <v>1</v>
       </c>
       <c r="P871" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="872" spans="1:16">
@@ -45306,7 +45306,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -45356,7 +45356,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -45406,7 +45406,7 @@
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -45456,7 +45456,7 @@
         <v>1</v>
       </c>
       <c r="P875" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="876" spans="1:16">
@@ -45506,7 +45506,7 @@
         <v>1</v>
       </c>
       <c r="P876" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -45556,7 +45556,7 @@
         <v>1</v>
       </c>
       <c r="P877" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -45606,7 +45606,7 @@
         <v>1</v>
       </c>
       <c r="P878" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -45906,7 +45906,7 @@
         <v>1</v>
       </c>
       <c r="P884" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -45956,7 +45956,7 @@
         <v>1</v>
       </c>
       <c r="P885" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -46006,7 +46006,7 @@
         <v>1</v>
       </c>
       <c r="P886" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46056,7 +46056,7 @@
         <v>1</v>
       </c>
       <c r="P887" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="888" spans="1:16">
@@ -46106,7 +46106,7 @@
         <v>1</v>
       </c>
       <c r="P888" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -46156,7 +46156,7 @@
         <v>1</v>
       </c>
       <c r="P889" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -46206,7 +46206,7 @@
         <v>1</v>
       </c>
       <c r="P890" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="891" spans="1:16">
@@ -46256,7 +46256,7 @@
         <v>1</v>
       </c>
       <c r="P891" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="892" spans="1:16">
@@ -46306,7 +46306,7 @@
         <v>1</v>
       </c>
       <c r="P892" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="893" spans="1:16">
@@ -46356,7 +46356,7 @@
         <v>1</v>
       </c>
       <c r="P893" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="894" spans="1:16">
@@ -46656,7 +46656,7 @@
         <v>1</v>
       </c>
       <c r="P899" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="900" spans="1:16">
@@ -46706,7 +46706,7 @@
         <v>1</v>
       </c>
       <c r="P900" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -46756,7 +46756,7 @@
         <v>1</v>
       </c>
       <c r="P901" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="902" spans="1:16">
@@ -46806,7 +46806,7 @@
         <v>1</v>
       </c>
       <c r="P902" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="903" spans="1:16">
@@ -46856,7 +46856,7 @@
         <v>1</v>
       </c>
       <c r="P903" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="904" spans="1:16">
@@ -48456,7 +48456,7 @@
         <v>1</v>
       </c>
       <c r="P935" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="936" spans="1:16">
@@ -48506,7 +48506,7 @@
         <v>1</v>
       </c>
       <c r="P936" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -48556,7 +48556,7 @@
         <v>1</v>
       </c>
       <c r="P937" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="938" spans="1:16">
@@ -48606,7 +48606,7 @@
         <v>1</v>
       </c>
       <c r="P938" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="939" spans="1:16">
@@ -50806,7 +50806,7 @@
         <v>1</v>
       </c>
       <c r="P982" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -50856,7 +50856,7 @@
         <v>1</v>
       </c>
       <c r="P983" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -50906,7 +50906,7 @@
         <v>1</v>
       </c>
       <c r="P984" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -50956,7 +50956,7 @@
         <v>1</v>
       </c>
       <c r="P985" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -51006,7 +51006,7 @@
         <v>1</v>
       </c>
       <c r="P986" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -51056,7 +51056,7 @@
         <v>1</v>
       </c>
       <c r="P987" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="988" spans="1:16">
@@ -51106,7 +51106,7 @@
         <v>1</v>
       </c>
       <c r="P988" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="989" spans="1:16">
@@ -51156,7 +51156,7 @@
         <v>1</v>
       </c>
       <c r="P989" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="990" spans="1:16">
@@ -51206,7 +51206,7 @@
         <v>1</v>
       </c>
       <c r="P990" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -51256,7 +51256,7 @@
         <v>1</v>
       </c>
       <c r="P991" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="992" spans="1:16">
@@ -51306,7 +51306,7 @@
         <v>1</v>
       </c>
       <c r="P992" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="993" spans="1:16">
@@ -51356,7 +51356,7 @@
         <v>1</v>
       </c>
       <c r="P993" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="994" spans="1:16">
@@ -51406,7 +51406,7 @@
         <v>1</v>
       </c>
       <c r="P994" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="995" spans="1:16">
@@ -51456,7 +51456,7 @@
         <v>1</v>
       </c>
       <c r="P995" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="996" spans="1:16">
@@ -51506,7 +51506,7 @@
         <v>1</v>
       </c>
       <c r="P996" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="997" spans="1:16">
@@ -51806,7 +51806,7 @@
         <v>1</v>
       </c>
       <c r="P1002" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1003" spans="1:16">
@@ -51856,7 +51856,7 @@
         <v>1</v>
       </c>
       <c r="P1003" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1004" spans="1:16">
@@ -51906,7 +51906,7 @@
         <v>1</v>
       </c>
       <c r="P1004" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1005" spans="1:16">
@@ -51956,7 +51956,7 @@
         <v>1</v>
       </c>
       <c r="P1005" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1006" spans="1:16">
@@ -52006,7 +52006,7 @@
         <v>1</v>
       </c>
       <c r="P1006" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1007" spans="1:16">
@@ -52656,7 +52656,7 @@
         <v>1</v>
       </c>
       <c r="P1019" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
@@ -52706,7 +52706,7 @@
         <v>1</v>
       </c>
       <c r="P1020" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -52756,7 +52756,7 @@
         <v>1</v>
       </c>
       <c r="P1021" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -52806,7 +52806,7 @@
         <v>1</v>
       </c>
       <c r="P1022" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -52856,7 +52856,7 @@
         <v>1</v>
       </c>
       <c r="P1023" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1024" spans="1:16">
@@ -52906,7 +52906,7 @@
         <v>1</v>
       </c>
       <c r="P1024" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1025" spans="1:16">
@@ -52956,7 +52956,7 @@
         <v>1</v>
       </c>
       <c r="P1025" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1026" spans="1:16">
@@ -53006,7 +53006,7 @@
         <v>1</v>
       </c>
       <c r="P1026" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1027" spans="1:16">
@@ -53056,7 +53056,7 @@
         <v>1</v>
       </c>
       <c r="P1027" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1028" spans="1:16">
@@ -53106,7 +53106,7 @@
         <v>1</v>
       </c>
       <c r="P1028" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
@@ -53156,7 +53156,7 @@
         <v>1</v>
       </c>
       <c r="P1029" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1030" spans="1:16">
@@ -53206,7 +53206,7 @@
         <v>1</v>
       </c>
       <c r="P1030" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1031" spans="1:16">
@@ -53256,7 +53256,7 @@
         <v>1</v>
       </c>
       <c r="P1031" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1032" spans="1:16">
@@ -53306,7 +53306,7 @@
         <v>1</v>
       </c>
       <c r="P1032" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
@@ -53356,7 +53356,7 @@
         <v>1</v>
       </c>
       <c r="P1033" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1034" spans="1:16">
@@ -53406,7 +53406,7 @@
         <v>1</v>
       </c>
       <c r="P1034" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1035" spans="1:16">
@@ -53456,7 +53456,7 @@
         <v>1</v>
       </c>
       <c r="P1035" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1036" spans="1:16">
@@ -53506,7 +53506,7 @@
         <v>1</v>
       </c>
       <c r="P1036" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
@@ -53556,7 +53556,7 @@
         <v>1</v>
       </c>
       <c r="P1037" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1038" spans="1:16">
@@ -53606,7 +53606,7 @@
         <v>1</v>
       </c>
       <c r="P1038" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
@@ -54406,7 +54406,7 @@
         <v>1</v>
       </c>
       <c r="P1054" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1055" spans="1:16">
@@ -54456,7 +54456,7 @@
         <v>1</v>
       </c>
       <c r="P1055" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1056" spans="1:16">
@@ -54506,7 +54506,7 @@
         <v>1</v>
       </c>
       <c r="P1056" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1057" spans="1:16">
@@ -54556,7 +54556,7 @@
         <v>1</v>
       </c>
       <c r="P1057" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1058" spans="1:16">
@@ -54606,7 +54606,7 @@
         <v>1</v>
       </c>
       <c r="P1058" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1059" spans="1:16">
@@ -54656,7 +54656,7 @@
         <v>1</v>
       </c>
       <c r="P1059" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1060" spans="1:16">
@@ -54706,7 +54706,7 @@
         <v>1</v>
       </c>
       <c r="P1060" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1061" spans="1:16">
@@ -54756,7 +54756,7 @@
         <v>1</v>
       </c>
       <c r="P1061" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1062" spans="1:16">
@@ -54806,7 +54806,7 @@
         <v>1</v>
       </c>
       <c r="P1062" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1063" spans="1:16">
@@ -54856,7 +54856,7 @@
         <v>1</v>
       </c>
       <c r="P1063" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1064" spans="1:16">
@@ -54906,7 +54906,7 @@
         <v>1</v>
       </c>
       <c r="P1064" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1065" spans="1:16">
@@ -54956,7 +54956,7 @@
         <v>1</v>
       </c>
       <c r="P1065" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1066" spans="1:16">
@@ -55006,7 +55006,7 @@
         <v>1</v>
       </c>
       <c r="P1066" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1067" spans="1:16">
@@ -55056,7 +55056,7 @@
         <v>1</v>
       </c>
       <c r="P1067" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1068" spans="1:16">
@@ -55106,7 +55106,7 @@
         <v>1</v>
       </c>
       <c r="P1068" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1069" spans="1:16">
@@ -55156,7 +55156,7 @@
         <v>1</v>
       </c>
       <c r="P1069" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1070" spans="1:16">
@@ -55206,7 +55206,7 @@
         <v>1</v>
       </c>
       <c r="P1070" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1071" spans="1:16">
@@ -55256,7 +55256,7 @@
         <v>1</v>
       </c>
       <c r="P1071" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1072" spans="1:16">
@@ -55306,7 +55306,7 @@
         <v>1</v>
       </c>
       <c r="P1072" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1073" spans="1:16">
@@ -55356,7 +55356,7 @@
         <v>1</v>
       </c>
       <c r="P1073" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1074" spans="1:16">
@@ -55406,7 +55406,7 @@
         <v>1</v>
       </c>
       <c r="P1074" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1075" spans="1:16">
@@ -55456,7 +55456,7 @@
         <v>1</v>
       </c>
       <c r="P1075" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1076" spans="1:16">
@@ -55506,7 +55506,7 @@
         <v>1</v>
       </c>
       <c r="P1076" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1077" spans="1:16">
@@ -55906,7 +55906,7 @@
         <v>1</v>
       </c>
       <c r="P1084" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1085" spans="1:16">
@@ -55956,7 +55956,7 @@
         <v>1</v>
       </c>
       <c r="P1085" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1086" spans="1:16">
@@ -56006,7 +56006,7 @@
         <v>1</v>
       </c>
       <c r="P1086" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1087" spans="1:16">
@@ -56056,7 +56056,7 @@
         <v>1</v>
       </c>
       <c r="P1087" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1088" spans="1:16">
@@ -56106,7 +56106,7 @@
         <v>1</v>
       </c>
       <c r="P1088" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1089" spans="1:16">
@@ -56156,7 +56156,7 @@
         <v>1</v>
       </c>
       <c r="P1089" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1090" spans="1:16">
@@ -56206,7 +56206,7 @@
         <v>1</v>
       </c>
       <c r="P1090" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1091" spans="1:16">
@@ -56256,7 +56256,7 @@
         <v>1</v>
       </c>
       <c r="P1091" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1092" spans="1:16">
@@ -56306,7 +56306,7 @@
         <v>1</v>
       </c>
       <c r="P1092" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1093" spans="1:16">
@@ -56356,7 +56356,7 @@
         <v>1</v>
       </c>
       <c r="P1093" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1094" spans="1:16">
@@ -56406,7 +56406,7 @@
         <v>1</v>
       </c>
       <c r="P1094" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1095" spans="1:16">
@@ -56456,7 +56456,7 @@
         <v>1</v>
       </c>
       <c r="P1095" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1096" spans="1:16">
@@ -56506,7 +56506,7 @@
         <v>1</v>
       </c>
       <c r="P1096" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1097" spans="1:16">
@@ -56556,7 +56556,7 @@
         <v>1</v>
       </c>
       <c r="P1097" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1098" spans="1:16">
@@ -60806,7 +60806,7 @@
         <v>1</v>
       </c>
       <c r="P1182" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1183" spans="1:16">
@@ -60856,7 +60856,7 @@
         <v>1</v>
       </c>
       <c r="P1183" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1184" spans="1:16">
@@ -60906,7 +60906,7 @@
         <v>1</v>
       </c>
       <c r="P1184" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1185" spans="1:16">
@@ -60956,7 +60956,7 @@
         <v>1</v>
       </c>
       <c r="P1185" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1186" spans="1:16">
@@ -61006,7 +61006,7 @@
         <v>1</v>
       </c>
       <c r="P1186" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1187" spans="1:16">
@@ -61056,7 +61056,7 @@
         <v>1</v>
       </c>
       <c r="P1187" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1188" spans="1:16">
@@ -61106,7 +61106,7 @@
         <v>1</v>
       </c>
       <c r="P1188" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1189" spans="1:16">
@@ -61156,7 +61156,7 @@
         <v>1</v>
       </c>
       <c r="P1189" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1190" spans="1:16">
@@ -61906,7 +61906,7 @@
         <v>1</v>
       </c>
       <c r="P1204" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1205" spans="1:16">
@@ -61956,7 +61956,7 @@
         <v>1</v>
       </c>
       <c r="P1205" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1206" spans="1:16">
@@ -62006,7 +62006,7 @@
         <v>1</v>
       </c>
       <c r="P1206" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1207" spans="1:16">
@@ -62056,7 +62056,7 @@
         <v>1</v>
       </c>
       <c r="P1207" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1208" spans="1:16">
@@ -62070,10 +62070,10 @@
         <v>2.273060437668773</v>
       </c>
       <c r="D1208" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E1208">
-        <v>2.260325761276134</v>
+        <v>2.251693099472454</v>
       </c>
       <c r="F1208">
         <v>1</v>
@@ -62082,10 +62082,10 @@
         <v>0.003826939562331226</v>
       </c>
       <c r="H1208">
-        <v>0.003779674238723866</v>
+        <v>0.003788306900527546</v>
       </c>
       <c r="I1208">
-        <v>-0.01273467639263881</v>
+        <v>-0.02136733819631909</v>
       </c>
       <c r="J1208">
         <v>0.2877553934560097</v>
@@ -62097,7 +62097,7 @@
         <v>3.05</v>
       </c>
       <c r="M1208">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="N1208">
         <v>3.02</v>
@@ -62106,7 +62106,7 @@
         <v>1</v>
       </c>
       <c r="P1208" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1209" spans="1:16">
@@ -62120,10 +62120,10 @@
         <v>2.270182883734214</v>
       </c>
       <c r="D1209" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E1209">
-        <v>2.260325761276134</v>
+        <v>2.251693099472454</v>
       </c>
       <c r="F1209">
         <v>1</v>
@@ -62132,10 +62132,10 @@
         <v>0.003829817116265786</v>
       </c>
       <c r="H1209">
-        <v>0.003779674238723866</v>
+        <v>0.003788306900527546</v>
       </c>
       <c r="I1209">
-        <v>-0.009857122458079015</v>
+        <v>-0.01848978426175929</v>
       </c>
       <c r="J1209">
         <v>0.2877553934560097</v>
@@ -62147,7 +62147,7 @@
         <v>3.05</v>
       </c>
       <c r="M1209">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="N1209">
         <v>3.02</v>
@@ -62156,7 +62156,7 @@
         <v>1</v>
       </c>
       <c r="P1209" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1210" spans="1:16">
@@ -62167,28 +62167,28 @@
         <v>181</v>
       </c>
       <c r="C1210">
-        <v>2.155065692293405</v>
+        <v>2.128308344111229</v>
       </c>
       <c r="D1210" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E1210">
-        <v>2.138380263803429</v>
+        <v>2.111722016910817</v>
       </c>
       <c r="F1210">
         <v>-1</v>
       </c>
       <c r="G1210">
-        <v>0.003944934307706595</v>
+        <v>0.003971691655888771</v>
       </c>
       <c r="H1210">
-        <v>0.00392161973619657</v>
+        <v>0.003948277983089183</v>
       </c>
       <c r="I1210">
-        <v>0.01668542848997534</v>
+        <v>0.01658632720041187</v>
       </c>
       <c r="J1210">
-        <v>0.3314571510024426</v>
+        <v>0.3413672799588041</v>
       </c>
       <c r="K1210">
         <v>2.7</v>
@@ -62206,56 +62206,6 @@
         <v>1</v>
       </c>
       <c r="P1210" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:16">
-      <c r="A1211" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1211">
-        <v>2.128308344111229</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1211">
-        <v>2.111722016910817</v>
-      </c>
-      <c r="F1211">
-        <v>-1</v>
-      </c>
-      <c r="G1211">
-        <v>0.003971691655888771</v>
-      </c>
-      <c r="H1211">
-        <v>0.003948277983089183</v>
-      </c>
-      <c r="I1211">
-        <v>0.01658632720041187</v>
-      </c>
-      <c r="J1211">
-        <v>0.3413672799588041</v>
-      </c>
-      <c r="K1211">
-        <v>2.7</v>
-      </c>
-      <c r="L1211">
-        <v>3.05</v>
-      </c>
-      <c r="M1211">
-        <v>2.69</v>
-      </c>
-      <c r="N1211">
-        <v>3.03</v>
-      </c>
-      <c r="O1211">
-        <v>1</v>
-      </c>
-      <c r="P1211" t="s">
         <v>444</v>
       </c>
     </row>

--- a/s60_signal/position-01288-601288.xlsx
+++ b/s60_signal/position-01288-601288.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="449">
   <si>
     <t>trade_time</t>
   </si>
@@ -559,13 +559,13 @@
     <t>2021-06-28</t>
   </si>
   <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
+    <t>2021-07-05</t>
   </si>
   <si>
     <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
   </si>
   <si>
     <t>2017-05-12</t>
@@ -988,7 +988,7 @@
     <t>2021-07-13</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2017-04-07</t>
@@ -1357,9 +1357,6 @@
     <t>2021-07-02</t>
   </si>
   <si>
-    <t>2021-07-05</t>
-  </si>
-  <si>
     <t>2021-07-07</t>
   </si>
   <si>
@@ -1721,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1217"/>
+  <dimension ref="A1:P1216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -62182,40 +62179,40 @@
         <v>181</v>
       </c>
       <c r="C1210">
-        <v>2.155065692293405</v>
+        <v>2.151694835313454</v>
       </c>
       <c r="D1210" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E1210">
-        <v>2.135009406823478</v>
+        <v>2.111638549843527</v>
       </c>
       <c r="F1210">
         <v>-1</v>
       </c>
       <c r="G1210">
-        <v>0.003944934307706595</v>
+        <v>0.003928305164686547</v>
       </c>
       <c r="H1210">
-        <v>0.003904990593176522</v>
+        <v>0.003868361450156473</v>
       </c>
       <c r="I1210">
-        <v>0.02005628546992666</v>
+        <v>0.04005628546992668</v>
       </c>
       <c r="J1210">
         <v>0.3314571510024426</v>
       </c>
       <c r="K1210">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="L1210">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="M1210">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N1210">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O1210">
         <v>1</v>
@@ -62232,25 +62229,25 @@
         <v>182</v>
       </c>
       <c r="C1211">
-        <v>2.111638549843527</v>
+        <v>2.151638549843527</v>
       </c>
       <c r="D1211" t="s">
         <v>324</v>
       </c>
       <c r="E1211">
-        <v>2.111694835313454</v>
+        <v>2.111638549843527</v>
       </c>
       <c r="F1211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1211">
+        <v>0.003908361450156472</v>
+      </c>
+      <c r="H1211">
         <v>0.003868361450156473</v>
       </c>
-      <c r="H1211">
-        <v>0.003888305164686546</v>
-      </c>
       <c r="I1211">
-        <v>5.628546992664241e-05</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="J1211">
         <v>0.3314571510024426</v>
@@ -62259,13 +62256,13 @@
         <v>2.65</v>
       </c>
       <c r="L1211">
+        <v>3.03</v>
+      </c>
+      <c r="M1211">
+        <v>2.65</v>
+      </c>
+      <c r="N1211">
         <v>2.99</v>
-      </c>
-      <c r="M1211">
-        <v>2.68</v>
-      </c>
-      <c r="N1211">
-        <v>3</v>
       </c>
       <c r="O1211">
         <v>1</v>
@@ -62279,16 +62276,16 @@
         <v>0</v>
       </c>
       <c r="B1212" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1212">
         <v>2.128308344111229</v>
       </c>
       <c r="D1212" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E1212">
-        <v>2.108549362509993</v>
+        <v>2.08537670810917</v>
       </c>
       <c r="F1212">
         <v>-1</v>
@@ -62297,10 +62294,10 @@
         <v>0.003971691655888771</v>
       </c>
       <c r="H1212">
-        <v>0.003931450637490007</v>
+        <v>0.003894623291890831</v>
       </c>
       <c r="I1212">
-        <v>0.01975898160123579</v>
+        <v>0.04293163600205929</v>
       </c>
       <c r="J1212">
         <v>0.3413672799588041</v>
@@ -62312,16 +62309,16 @@
         <v>3.05</v>
       </c>
       <c r="M1212">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N1212">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O1212">
         <v>1</v>
       </c>
       <c r="P1212" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1213" spans="1:16">
@@ -62332,25 +62329,25 @@
         <v>182</v>
       </c>
       <c r="C1213">
-        <v>2.08537670810917</v>
+        <v>2.125376708109169</v>
       </c>
       <c r="D1213" t="s">
         <v>324</v>
       </c>
       <c r="E1213">
-        <v>2.085135689710405</v>
+        <v>2.08537670810917</v>
       </c>
       <c r="F1213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1213">
+        <v>0.003934623291890831</v>
+      </c>
+      <c r="H1213">
         <v>0.003894623291890831</v>
       </c>
-      <c r="H1213">
-        <v>0.003914864310289595</v>
-      </c>
       <c r="I1213">
-        <v>-0.0002410183987646697</v>
+        <v>0.03999999999999959</v>
       </c>
       <c r="J1213">
         <v>0.3413672799588041</v>
@@ -62359,19 +62356,19 @@
         <v>2.65</v>
       </c>
       <c r="L1213">
+        <v>3.03</v>
+      </c>
+      <c r="M1213">
+        <v>2.65</v>
+      </c>
+      <c r="N1213">
         <v>2.99</v>
       </c>
-      <c r="M1213">
-        <v>2.68</v>
-      </c>
-      <c r="N1213">
-        <v>3</v>
-      </c>
       <c r="O1213">
         <v>1</v>
       </c>
       <c r="P1213" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1214" spans="1:16">
@@ -62379,16 +62376,16 @@
         <v>0</v>
       </c>
       <c r="B1214" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1214">
         <v>2.100848552222461</v>
       </c>
       <c r="D1214" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E1214">
-        <v>2.08383608846565</v>
+        <v>2.060848552222462</v>
       </c>
       <c r="F1214">
         <v>-1</v>
@@ -62397,10 +62394,10 @@
         <v>0.003959151447777538</v>
       </c>
       <c r="H1214">
-        <v>0.00395616391153435</v>
+        <v>0.003919151447777539</v>
       </c>
       <c r="I1214">
-        <v>0.01701246375681142</v>
+        <v>0.03999999999999959</v>
       </c>
       <c r="J1214">
         <v>0.3506231878405806</v>
@@ -62412,66 +62409,66 @@
         <v>3.03</v>
       </c>
       <c r="M1214">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N1214">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O1214">
         <v>1</v>
       </c>
       <c r="P1214" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1215" spans="1:16">
       <c r="A1215" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1215" t="s">
         <v>182</v>
       </c>
       <c r="C1215">
-        <v>2.060848552222462</v>
+        <v>2.075023488585573</v>
       </c>
       <c r="D1215" t="s">
         <v>324</v>
       </c>
       <c r="E1215">
-        <v>2.060329856587244</v>
+        <v>2.035023488585574</v>
       </c>
       <c r="F1215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1215">
-        <v>0.003919151447777539</v>
+        <v>0.003984976511414427</v>
       </c>
       <c r="H1215">
-        <v>0.003939670143412756</v>
+        <v>0.003944976511414427</v>
       </c>
       <c r="I1215">
-        <v>-0.0005186956352174477</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="J1215">
-        <v>0.3506231878405806</v>
+        <v>0.3603684948733686</v>
       </c>
       <c r="K1215">
         <v>2.65</v>
       </c>
       <c r="L1215">
+        <v>3.03</v>
+      </c>
+      <c r="M1215">
+        <v>2.65</v>
+      </c>
+      <c r="N1215">
         <v>2.99</v>
       </c>
-      <c r="M1215">
-        <v>2.68</v>
-      </c>
-      <c r="N1215">
-        <v>3</v>
-      </c>
       <c r="O1215">
         <v>1</v>
       </c>
       <c r="P1215" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1216" spans="1:16">
@@ -62479,31 +62476,31 @@
         <v>0</v>
       </c>
       <c r="B1216" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1216">
-        <v>2.075023488585573</v>
+        <v>2.041653123537238</v>
       </c>
       <c r="D1216" t="s">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="E1216">
-        <v>2.035023488585574</v>
+        <v>2.001653123537238</v>
       </c>
       <c r="F1216">
         <v>-1</v>
       </c>
       <c r="G1216">
-        <v>0.003984976511414427</v>
+        <v>0.004018346876462763</v>
       </c>
       <c r="H1216">
-        <v>0.003944976511414427</v>
+        <v>0.003978346876462762</v>
       </c>
       <c r="I1216">
-        <v>0.03999999999999915</v>
+        <v>0.03999999999999959</v>
       </c>
       <c r="J1216">
-        <v>0.3603684948733686</v>
+        <v>0.3729610854576461</v>
       </c>
       <c r="K1216">
         <v>2.65</v>
@@ -62522,56 +62519,6 @@
       </c>
       <c r="P1216" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:16">
-      <c r="A1217" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1217">
-        <v>2.041653123537238</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1217">
-        <v>2.001653123537238</v>
-      </c>
-      <c r="F1217">
-        <v>-1</v>
-      </c>
-      <c r="G1217">
-        <v>0.004018346876462763</v>
-      </c>
-      <c r="H1217">
-        <v>0.003978346876462762</v>
-      </c>
-      <c r="I1217">
-        <v>0.03999999999999959</v>
-      </c>
-      <c r="J1217">
-        <v>0.3729610854576461</v>
-      </c>
-      <c r="K1217">
-        <v>2.65</v>
-      </c>
-      <c r="L1217">
-        <v>3.03</v>
-      </c>
-      <c r="M1217">
-        <v>2.65</v>
-      </c>
-      <c r="N1217">
-        <v>2.99</v>
-      </c>
-      <c r="O1217">
-        <v>1</v>
-      </c>
-      <c r="P1217" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01288-601288.xlsx
+++ b/s60_signal/position-01288-601288.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="453">
   <si>
     <t>trade_time</t>
   </si>
@@ -565,9 +565,6 @@
     <t>2021-07-09</t>
   </si>
   <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
     <t>2021-07-16</t>
   </si>
   <si>
@@ -994,6 +991,9 @@
     <t>2021-07-14</t>
   </si>
   <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
     <t>2021-07-19</t>
   </si>
   <si>
@@ -1371,6 +1371,9 @@
   <si>
     <t>2021-07-08</t>
   </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
 </sst>
 </file>
 
@@ -1727,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1221"/>
+  <dimension ref="A1:P1220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1791,7 +1794,7 @@
         <v>2.736301869940205</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2">
         <v>2.847870331810879</v>
@@ -1841,7 +1844,7 @@
         <v>2.729674485191937</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3">
         <v>2.847870331810879</v>
@@ -1941,7 +1944,7 @@
         <v>2.928106023321263</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>2.95653756145059</v>
@@ -1991,7 +1994,7 @@
         <v>2.700145138092696</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>2.817760351482159</v>
@@ -2091,7 +2094,7 @@
         <v>2.898991414243079</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8">
         <v>2.926683966543846</v>
@@ -2141,7 +2144,7 @@
         <v>2.664514498179489</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>2.781429109098749</v>
@@ -2241,7 +2244,7 @@
         <v>2.863861204665732</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>2.923861204665732</v>
@@ -2291,7 +2294,7 @@
         <v>2.624175638305112</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>2.740297069395382</v>
@@ -2391,7 +2394,7 @@
         <v>2.824088901812063</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14">
         <v>2.878227680200942</v>
@@ -2841,7 +2844,7 @@
         <v>2.123172005965047</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23">
         <v>2.259097770054441</v>
@@ -2891,7 +2894,7 @@
         <v>2.139797430459155</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24">
         <v>2.259097770054441</v>
@@ -2941,7 +2944,7 @@
         <v>2.145846921066225</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25">
         <v>2.259097770054441</v>
@@ -2991,7 +2994,7 @@
         <v>2.356834548414457</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26">
         <v>2.328809803110922</v>
@@ -3041,7 +3044,7 @@
         <v>2.357122515357976</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27">
         <v>2.328809803110922</v>
@@ -3091,7 +3094,7 @@
         <v>0.3783279653315685</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E28">
         <v>0.288869845018267</v>
@@ -3141,7 +3144,7 @@
         <v>0.4356185668980777</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29">
         <v>0.2299536043916639</v>
@@ -3191,7 +3194,7 @@
         <v>0.2183279653315688</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30">
         <v>0.3099536043916635</v>
@@ -3241,7 +3244,7 @@
         <v>0.2272442059581721</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31">
         <v>0.3099536043916635</v>
@@ -3291,7 +3294,7 @@
         <v>0.3767023262714742</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32">
         <v>0.2483279653315686</v>
@@ -3391,7 +3394,7 @@
         <v>0.3872442059581722</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34">
         <v>0.2380817996921381</v>
@@ -3441,7 +3444,7 @@
         <v>0.4238534828625462</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E35">
         <v>0.2179277982722425</v>
@@ -3491,7 +3494,7 @@
         <v>0.2063999299936059</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36">
         <v>0.2979277982722421</v>
@@ -3541,7 +3544,7 @@
         <v>0.2153813511411817</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E37">
         <v>0.2979277982722421</v>
@@ -3591,7 +3594,7 @@
         <v>0.3648720617149701</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38">
         <v>0.2363999299936057</v>
@@ -3691,7 +3694,7 @@
         <v>0.3753813511411819</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E40">
         <v>0.2255671396654231</v>
@@ -3741,7 +3744,7 @@
         <v>0.4082626532623852</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41">
         <v>0.2019914655230477</v>
@@ -3791,7 +3794,7 @@
         <v>0.1905931609252991</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42">
         <v>0.2819914655230473</v>
@@ -3841,7 +3844,7 @@
         <v>0.1705931609252991</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E43">
         <v>0.2819914655230473</v>
@@ -3891,7 +3894,7 @@
         <v>0.3491948563275509</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E44">
         <v>0.2205931609252989</v>
@@ -3941,7 +3944,7 @@
         <v>0.3596609578601333</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E45">
         <v>0.2089829885117895</v>
@@ -4041,7 +4044,7 @@
         <v>0.3962146104807465</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E47">
         <v>0.1896764301035887</v>
@@ -4091,7 +4094,7 @@
         <v>0.1475127928393118</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48">
         <v>0.2696764301035883</v>
@@ -4141,7 +4144,7 @@
         <v>0.1583782477450226</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49">
         <v>0.2696764301035883</v>
@@ -4191,7 +4194,7 @@
         <v>0.337080065386457</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50">
         <v>0.2083782477450224</v>
@@ -4241,7 +4244,7 @@
         <v>0.347512792839312</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51">
         <v>0.1961673418964174</v>
@@ -4341,7 +4344,7 @@
         <v>0.3913277496971475</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E53">
         <v>0.1846812732361425</v>
@@ -4391,7 +4394,7 @@
         <v>0.1425853210242698</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54">
         <v>0.2646812732361421</v>
@@ -4441,7 +4444,7 @@
         <v>0.153423701909019</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55">
         <v>0.2646812732361421</v>
@@ -4491,7 +4494,7 @@
         <v>0.3321661305818959</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56">
         <v>0.2034237019090188</v>
@@ -4541,7 +4544,7 @@
         <v>0.34258532102427</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57">
         <v>0.1909691298717577</v>
@@ -4591,7 +4594,7 @@
         <v>0.1239034629683782</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58">
         <v>0.1064186056226242</v>
@@ -4641,7 +4644,7 @@
         <v>0.3826921466374791</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E59">
         <v>0.1758542994715504</v>
@@ -4677,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4691,7 +4694,7 @@
         <v>0.1338779539502553</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E60">
         <v>0.25585429947155</v>
@@ -4727,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4741,7 +4744,7 @@
         <v>0.1446684921587735</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E61">
         <v>0.25585429947155</v>
@@ -4777,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4791,7 +4794,7 @@
         <v>0.3234826848459966</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62">
         <v>0.1946684921587734</v>
@@ -4827,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4841,7 +4844,7 @@
         <v>0.3338779539502554</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63">
         <v>0.1817833360354348</v>
@@ -4877,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4891,7 +4894,7 @@
         <v>0.1145502197652473</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64">
         <v>0.1673171034950598</v>
@@ -4927,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4941,7 +4944,7 @@
         <v>0.3860093454781488</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E65">
         <v>0.1792450096438696</v>
@@ -4991,7 +4994,7 @@
         <v>0.1372227195402935</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66">
         <v>0.2592450096438692</v>
@@ -5041,7 +5044,7 @@
         <v>0.1480316355817242</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67">
         <v>0.2592450096438692</v>
@@ -5091,7 +5094,7 @@
         <v>0.3268182615195787</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E68">
         <v>0.198031635581724</v>
@@ -5141,7 +5144,7 @@
         <v>0.3372227195402937</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69">
         <v>0.1853118799545959</v>
@@ -5191,7 +5194,7 @@
         <v>0.1181430860996011</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70">
         <v>0.1717832082860369</v>
@@ -5241,7 +5244,7 @@
         <v>0.1347087611482474</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <v>0.2566965188563279</v>
@@ -5291,7 +5294,7 @@
         <v>0.1455038642314799</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72">
         <v>0.2566965188563279</v>
@@ -5341,7 +5344,7 @@
         <v>0.3243112096066318</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73">
         <v>0.1955038642314797</v>
@@ -5391,7 +5394,7 @@
         <v>0.3347087611482475</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74">
         <v>0.1826597919805693</v>
@@ -5491,7 +5494,7 @@
         <v>0.148003647030841</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E76">
         <v>0.2701740267977484</v>
@@ -5541,7 +5544,7 @@
         <v>0.1588717989376041</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77">
         <v>0.2701740267977484</v>
@@ -5591,7 +5594,7 @@
         <v>0.3375695710774598</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78">
         <v>0.2088717989376039</v>
@@ -5641,7 +5644,7 @@
         <v>0.3075695710774595</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79">
         <v>0.1966851660984701</v>
@@ -5741,7 +5744,7 @@
         <v>0.1171819147372615</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E81">
         <v>0.2389289190605757</v>
@@ -5791,7 +5794,7 @@
         <v>0.1054349104139476</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E82">
         <v>0.2389289190605757</v>
@@ -5841,7 +5844,7 @@
         <v>0.1278807164665872</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E83">
         <v>0.2389289190605757</v>
@@ -5891,7 +5894,7 @@
         <v>0.3068325138725991</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E84">
         <v>0.177880716466587</v>
@@ -5941,7 +5944,7 @@
         <v>0.2768325138725989</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E85">
         <v>0.1641699320305179</v>
@@ -6041,7 +6044,7 @@
         <v>0.1195800048098783</v>
       </c>
       <c r="D87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E87">
         <v>0.2413599499308932</v>
@@ -6091,7 +6094,7 @@
         <v>0.1078000596888637</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E88">
         <v>0.2413599499308932</v>
@@ -6141,7 +6144,7 @@
         <v>0.2699359938340815</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89">
         <v>0.1802919828582841</v>
@@ -6191,7 +6194,7 @@
         <v>0.3092240157856758</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E90">
         <v>0.1802919828582841</v>
@@ -6291,7 +6294,7 @@
         <v>0.1355282413791272</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E92">
         <v>0.2575272556837853</v>
@@ -6341,7 +6344,7 @@
         <v>0.123529227074469</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93">
         <v>0.2575272556837853</v>
@@ -6391,7 +6394,7 @@
         <v>0.2859280442400589</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94">
         <v>0.1963278471009904</v>
@@ -6441,7 +6444,7 @@
         <v>0.3251284385181958</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95">
         <v>0.1963278471009904</v>
@@ -6541,7 +6544,7 @@
         <v>0.1464229424777885</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E97">
         <v>0.2685716092700661</v>
@@ -6591,7 +6594,7 @@
         <v>0.1342742756855118</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E98">
         <v>0.2685716092700661</v>
@@ -6641,7 +6644,7 @@
         <v>0.2968526758362446</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99">
         <v>0.2072824091946996</v>
@@ -6691,7 +6694,7 @@
         <v>0.287712142553155</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E100">
         <v>0.2072824091946996</v>
@@ -6741,7 +6744,7 @@
         <v>0.3359932091193336</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E101">
         <v>0.2072824091946996</v>
@@ -6841,7 +6844,7 @@
         <v>0.1556205478077675</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E103">
         <v>0.2778955553325995</v>
@@ -6877,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6891,7 +6894,7 @@
         <v>0.1433455402829358</v>
       </c>
       <c r="D104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E104">
         <v>0.2778955553325995</v>
@@ -6927,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6941,7 +6944,7 @@
         <v>0.3060755493127343</v>
       </c>
       <c r="D105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E105">
         <v>0.2165305508177005</v>
@@ -6977,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6991,7 +6994,7 @@
         <v>0.2969855523226665</v>
       </c>
       <c r="D106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E106">
         <v>0.2165305508177005</v>
@@ -7027,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7041,7 +7044,7 @@
         <v>0.3451655463028014</v>
       </c>
       <c r="D107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E107">
         <v>0.2165305508177005</v>
@@ -7077,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7127,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7177,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7227,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7241,7 +7244,7 @@
         <v>0.2856291311460146</v>
       </c>
       <c r="D111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E111">
         <v>0.1960281150669623</v>
@@ -7291,7 +7294,7 @@
         <v>0.3248311633041188</v>
       </c>
       <c r="D112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E112">
         <v>0.1960281150669623</v>
@@ -7491,7 +7494,7 @@
         <v>0.2690278628175751</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E116">
         <v>0.1793813638115958</v>
@@ -7541,7 +7544,7 @@
         <v>0.3083208608295336</v>
       </c>
       <c r="D117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E117">
         <v>0.1793813638115958</v>
@@ -7741,7 +7744,7 @@
         <v>0.2682993245361525</v>
       </c>
       <c r="D121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E121">
         <v>0.1282993245361523</v>
@@ -7791,7 +7794,7 @@
         <v>0.2382993245361522</v>
       </c>
       <c r="D122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E122">
         <v>0.1234075499225415</v>
@@ -9391,7 +9394,7 @@
         <v>0.5402465432961154</v>
       </c>
       <c r="D154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E154">
         <v>0.2433191006528403</v>
@@ -10227,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10277,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10327,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10377,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10541,7 +10544,7 @@
         <v>-0.3601318117531234</v>
       </c>
       <c r="D177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E177">
         <v>-0.3492775547831899</v>
@@ -10991,7 +10994,7 @@
         <v>-0.3369626965199402</v>
       </c>
       <c r="D186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E186">
         <v>-0.3218135076283888</v>
@@ -11491,7 +11494,7 @@
         <v>-0.2803425370864101</v>
       </c>
       <c r="D196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E196">
         <v>-0.2676987276989395</v>
@@ -11741,7 +11744,7 @@
         <v>0.3089576370698213</v>
       </c>
       <c r="D201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E201">
         <v>-0.004452894950772723</v>
@@ -11791,7 +11794,7 @@
         <v>-0.1797221569867231</v>
       </c>
       <c r="D202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E202">
         <v>-0.1035727576551349</v>
@@ -12041,7 +12044,7 @@
         <v>0.4462366815850594</v>
       </c>
       <c r="D207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E207">
         <v>0.1232628902836281</v>
@@ -12341,7 +12344,7 @@
         <v>0.5847706640757719</v>
       </c>
       <c r="D213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E213">
         <v>0.2521461908480216</v>
@@ -14277,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14327,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14377,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14427,7 +14430,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14477,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14527,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -15127,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15177,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15227,7 +15230,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15277,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15327,7 +15330,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15541,7 +15544,7 @@
         <v>0.5944472509356928</v>
       </c>
       <c r="D277" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E277">
         <v>0.5937040496017834</v>
@@ -16541,7 +16544,7 @@
         <v>0.8547912771600572</v>
       </c>
       <c r="D297" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E297">
         <v>0.691894652378938</v>
@@ -16591,7 +16594,7 @@
         <v>0.867964275409006</v>
       </c>
       <c r="D298" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E298">
         <v>0.691894652378938</v>
@@ -16791,7 +16794,7 @@
         <v>0.9636985716654536</v>
       </c>
       <c r="D302" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E302">
         <v>0.9005583064044567</v>
@@ -16841,7 +16844,7 @@
         <v>0.9788206937534252</v>
       </c>
       <c r="D303" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E303">
         <v>0.9005583064044567</v>
@@ -17291,7 +17294,7 @@
         <v>0.9981052981586429</v>
       </c>
       <c r="D312" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E312">
         <v>0.8908879530608163</v>
@@ -17341,7 +17344,7 @@
         <v>1.004290121198045</v>
       </c>
       <c r="D313" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E313">
         <v>0.8908879530608163</v>
@@ -17541,7 +17544,7 @@
         <v>0.9663322045420197</v>
       </c>
       <c r="D317" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E317">
         <v>0.8611227906742522</v>
@@ -17591,7 +17594,7 @@
         <v>0.9744058739110719</v>
       </c>
       <c r="D318" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E318">
         <v>0.8611227906742522</v>
@@ -17677,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17727,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17777,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17791,7 +17794,7 @@
         <v>0.7718658463323189</v>
       </c>
       <c r="D322" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E322">
         <v>0.7601107589473766</v>
@@ -17827,7 +17830,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17841,7 +17844,7 @@
         <v>0.7915001484611839</v>
       </c>
       <c r="D323" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E323">
         <v>0.7601107589473766</v>
@@ -17877,7 +17880,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18041,7 +18044,7 @@
         <v>0.7547672427101868</v>
       </c>
       <c r="D327" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E327">
         <v>0.7580892281577376</v>
@@ -18091,7 +18094,7 @@
         <v>0.7754180223367575</v>
       </c>
       <c r="D328" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E328">
         <v>0.7580892281577376</v>
@@ -18677,7 +18680,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18727,7 +18730,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18777,7 +18780,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18827,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18877,7 +18880,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18927,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18977,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19027,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -19077,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -19127,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19177,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19227,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19241,7 +19244,7 @@
         <v>0.9173155331048179</v>
       </c>
       <c r="D351" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E351">
         <v>0.8852934632268936</v>
@@ -19277,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19291,7 +19294,7 @@
         <v>0.9374760959769093</v>
       </c>
       <c r="D352" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E352">
         <v>0.8852934632268936</v>
@@ -19327,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19341,7 +19344,7 @@
         <v>0.874892056046666</v>
       </c>
       <c r="D353" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E353">
         <v>0.8852934632268936</v>
@@ -19377,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19391,7 +19394,7 @@
         <v>0.8447314931745757</v>
       </c>
       <c r="D354" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E354">
         <v>0.8852934632268936</v>
@@ -19427,7 +19430,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19441,7 +19444,7 @@
         <v>0.8812643574478334</v>
       </c>
       <c r="D355" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E355">
         <v>0.8852934632268936</v>
@@ -19477,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19527,7 +19530,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19577,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19627,7 +19630,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19677,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19691,7 +19694,7 @@
         <v>0.8451849609790436</v>
       </c>
       <c r="D360" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E360">
         <v>0.7921634135567177</v>
@@ -19727,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19741,7 +19744,7 @@
         <v>0.8662585690679174</v>
       </c>
       <c r="D361" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E361">
         <v>0.7921634135567177</v>
@@ -19777,7 +19780,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19791,7 +19794,7 @@
         <v>0.8079354068159899</v>
       </c>
       <c r="D362" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E362">
         <v>0.7921634135567177</v>
@@ -19827,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19841,7 +19844,7 @@
         <v>0.7768617987271176</v>
       </c>
       <c r="D363" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E363">
         <v>0.7921634135567177</v>
@@ -19877,7 +19880,7 @@
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -19891,7 +19894,7 @@
         <v>0.8126337919863897</v>
       </c>
       <c r="D364" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E364">
         <v>0.7921634135567177</v>
@@ -19927,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19977,7 +19980,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -20027,7 +20030,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -20077,7 +20080,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -20127,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20177,7 +20180,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20227,7 +20230,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20277,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20341,7 +20344,7 @@
         <v>0.4031139431351654</v>
       </c>
       <c r="D373" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E373">
         <v>0.6032071984927341</v>
@@ -20391,7 +20394,7 @@
         <v>0.4387363244209816</v>
       </c>
       <c r="D374" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E374">
         <v>0.6032071984927341</v>
@@ -20441,7 +20444,7 @@
         <v>0.4483214035637708</v>
       </c>
       <c r="D375" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E375">
         <v>0.6032071984927341</v>
@@ -20491,7 +20494,7 @@
         <v>0.4419624359211007</v>
       </c>
       <c r="D376" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E376">
         <v>0.6032071984927341</v>
@@ -20541,7 +20544,7 @@
         <v>0.3903027524922571</v>
       </c>
       <c r="D377" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E377">
         <v>0.6032071984927341</v>
@@ -20641,7 +20644,7 @@
         <v>0.4035803791252817</v>
       </c>
       <c r="D379" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E379">
         <v>0.6036478360320694</v>
@@ -20691,7 +20694,7 @@
         <v>0.4391965687829105</v>
       </c>
       <c r="D380" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E380">
         <v>0.6036478360320694</v>
@@ -20741,7 +20744,7 @@
         <v>0.4487857756778246</v>
       </c>
       <c r="D381" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E381">
         <v>0.6036478360320694</v>
@@ -20791,7 +20794,7 @@
         <v>0.442415456716811</v>
       </c>
       <c r="D382" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E382">
         <v>0.6036478360320694</v>
@@ -20841,7 +20844,7 @@
         <v>0.3907722842964674</v>
       </c>
       <c r="D383" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E383">
         <v>0.6036478360320694</v>
@@ -20891,7 +20894,7 @@
         <v>0.4099954790632743</v>
       </c>
       <c r="D384" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E384">
         <v>0.6097081184956155</v>
@@ -20941,7 +20944,7 @@
         <v>0.445526512527036</v>
       </c>
       <c r="D385" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E385">
         <v>0.6097081184956155</v>
@@ -20991,7 +20994,7 @@
         <v>0.4551724902178615</v>
       </c>
       <c r="D386" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E386">
         <v>0.6097081184956155</v>
@@ -21041,7 +21044,7 @@
         <v>0.4486460515680912</v>
       </c>
       <c r="D387" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E387">
         <v>0.6097081184956155</v>
@@ -21091,7 +21094,7 @@
         <v>0.3972299623313931</v>
       </c>
       <c r="D388" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E388">
         <v>0.6097081184956155</v>
@@ -21141,7 +21144,7 @@
         <v>0.4159753349529045</v>
       </c>
       <c r="D389" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E389">
         <v>0.6153572301435624</v>
@@ -21191,7 +21194,7 @@
         <v>0.4514269897986622</v>
       </c>
       <c r="D390" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E390">
         <v>0.6153572301435624</v>
@@ -21241,7 +21244,7 @@
         <v>0.4611258865681567</v>
       </c>
       <c r="D391" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E391">
         <v>0.6153572301435624</v>
@@ -21291,7 +21294,7 @@
         <v>0.4544539204520461</v>
       </c>
       <c r="D392" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E392">
         <v>0.6153572301435624</v>
@@ -21341,7 +21344,7 @@
         <v>0.4032495075300253</v>
       </c>
       <c r="D393" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E393">
         <v>0.6153572301435624</v>
@@ -21391,7 +21394,7 @@
         <v>0.7308088849893202</v>
       </c>
       <c r="D394" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E394">
         <v>0.4938358156427043</v>
@@ -21441,7 +21444,7 @@
         <v>0.4285599910068685</v>
       </c>
       <c r="D395" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E395">
         <v>0.6017714957300915</v>
@@ -21477,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21491,7 +21494,7 @@
         <v>0.4638445928961579</v>
       </c>
       <c r="D396" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E396">
         <v>0.6017714957300915</v>
@@ -21527,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21541,7 +21544,7 @@
         <v>0.4736548583032985</v>
       </c>
       <c r="D397" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E397">
         <v>0.6017714957300915</v>
@@ -21577,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21591,7 +21594,7 @@
         <v>0.4666766284336621</v>
       </c>
       <c r="D398" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E398">
         <v>0.6017714957300915</v>
@@ -21627,7 +21630,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -21641,7 +21644,7 @@
         <v>0.4159176900622241</v>
       </c>
       <c r="D399" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E399">
         <v>0.6272458322122412</v>
@@ -21677,7 +21680,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -21691,7 +21694,7 @@
         <v>0.7425304341015302</v>
       </c>
       <c r="D400" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E400">
         <v>0.5053624696390346</v>
@@ -21727,7 +21730,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -21741,7 +21744,7 @@
         <v>0.4702676023426045</v>
       </c>
       <c r="D401" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E401">
         <v>0.5557419388247538</v>
@@ -21777,7 +21780,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -21791,7 +21794,7 @@
         <v>0.4398232815656735</v>
       </c>
       <c r="D402" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E402">
         <v>0.6126610045225642</v>
@@ -21841,7 +21844,7 @@
         <v>0.4749583707484297</v>
       </c>
       <c r="D403" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E403">
         <v>0.6126610045225642</v>
@@ -21891,7 +21894,7 @@
         <v>0.4848683112932588</v>
       </c>
       <c r="D404" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E404">
         <v>0.6126610045225642</v>
@@ -21941,7 +21944,7 @@
         <v>0.4776159747949791</v>
       </c>
       <c r="D405" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E405">
         <v>0.6126610045225642</v>
@@ -21991,7 +21994,7 @@
         <v>0.4272557369742951</v>
       </c>
       <c r="D406" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E406">
         <v>0.6378861531604927</v>
@@ -22041,7 +22044,7 @@
         <v>0.7530212423432485</v>
       </c>
       <c r="D407" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E407">
         <v>0.5156788463897981</v>
@@ -22091,7 +22094,7 @@
         <v>0.4806338166622122</v>
       </c>
       <c r="D408" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E408">
         <v>0.5585165693466894</v>
@@ -22141,7 +22144,7 @@
         <v>0.4559662527843149</v>
       </c>
       <c r="D409" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E409">
         <v>0.6208870547385055</v>
@@ -22177,7 +22180,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22191,7 +22194,7 @@
         <v>0.5009398534357117</v>
       </c>
       <c r="D410" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E410">
         <v>0.6282682576697911</v>
@@ -22227,7 +22230,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22241,7 +22244,7 @@
         <v>0.4932946570183945</v>
       </c>
       <c r="D411" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E411">
         <v>0.6282682576697911</v>
@@ -22277,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -22291,7 +22294,7 @@
         <v>0.4435058518072199</v>
       </c>
       <c r="D412" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E412">
         <v>0.6531362609267757</v>
@@ -22327,7 +22330,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22341,7 +22344,7 @@
         <v>0.7330834622295685</v>
       </c>
       <c r="D413" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E413">
         <v>0.5304646651608551</v>
@@ -22377,7 +22380,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22391,7 +22394,7 @@
         <v>0.4954910645094577</v>
       </c>
       <c r="D414" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E414">
         <v>0.5503590677664425</v>
@@ -22427,7 +22430,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22441,7 +22444,7 @@
         <v>0.4692568782562949</v>
       </c>
       <c r="D415" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E415">
         <v>0.6340012559785562</v>
@@ -22491,7 +22494,7 @@
         <v>0.5141716708303816</v>
       </c>
       <c r="D416" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E416">
         <v>0.6411178225619483</v>
@@ -22541,7 +22544,7 @@
         <v>0.5062030299878613</v>
       </c>
       <c r="D417" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E417">
         <v>0.6411178225619483</v>
@@ -22591,7 +22594,7 @@
         <v>0.4568846893951641</v>
       </c>
       <c r="D418" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E418">
         <v>0.6656917854323847</v>
@@ -22641,7 +22644,7 @@
         <v>0.7455213705805583</v>
       </c>
       <c r="D419" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E419">
         <v>0.5426379371639514</v>
@@ -22691,7 +22694,7 @@
         <v>0.5077231445898636</v>
       </c>
       <c r="D420" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E420">
         <v>0.5797545037473437</v>
@@ -22777,7 +22780,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22791,7 +22794,7 @@
         <v>0.5117738213652006</v>
       </c>
       <c r="D422" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E422">
         <v>0.6759538148869013</v>
@@ -22827,7 +22830,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -22841,7 +22844,7 @@
         <v>0.5565004858724341</v>
       </c>
       <c r="D423" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E423">
         <v>0.6569504696766861</v>
@@ -22877,7 +22880,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -22891,7 +22894,7 @@
         <v>0.5474971406622191</v>
       </c>
       <c r="D424" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E424">
         <v>0.6569504696766861</v>
@@ -22927,7 +22930,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -22941,7 +22944,7 @@
         <v>0.4996838246043502</v>
       </c>
       <c r="D425" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E425">
         <v>0.7058571277056211</v>
@@ -22977,7 +22980,7 @@
         <v>1</v>
       </c>
       <c r="P425" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -22991,7 +22994,7 @@
         <v>0.7853104567200875</v>
       </c>
       <c r="D426" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E426">
         <v>0.5815804470026396</v>
@@ -23027,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="P426" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23041,7 +23044,7 @@
         <v>0.5468537824954054</v>
       </c>
       <c r="D427" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E427">
         <v>0.628943779256256</v>
@@ -23077,7 +23080,7 @@
         <v>1</v>
       </c>
       <c r="P427" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -23141,7 +23144,7 @@
         <v>0.5244045735205582</v>
       </c>
       <c r="D429" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E429">
         <v>0.6884169021906392</v>
@@ -23191,7 +23194,7 @@
         <v>0.5690753497439185</v>
       </c>
       <c r="D430" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E430">
         <v>0.6691061714191213</v>
@@ -23241,7 +23244,7 @@
         <v>0.5597646189724004</v>
       </c>
       <c r="D431" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E431">
         <v>0.6691061714191213</v>
@@ -23291,7 +23294,7 @@
         <v>0.5123984091855176</v>
       </c>
       <c r="D432" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E432">
         <v>0.7177892763125628</v>
@@ -23341,7 +23344,7 @@
         <v>0.7971308287592831</v>
       </c>
       <c r="D433" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E433">
         <v>0.5931493217644053</v>
@@ -23391,7 +23394,7 @@
         <v>0.5584785455410444</v>
       </c>
       <c r="D434" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E434">
         <v>0.6104847098760855</v>
@@ -23491,7 +23494,7 @@
         <v>0.5735163199427395</v>
       </c>
       <c r="D436" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E436">
         <v>0.7368767227753579</v>
@@ -23541,7 +23544,7 @@
         <v>0.6063707946351586</v>
       </c>
       <c r="D437" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E437">
         <v>0.7080509960514676</v>
@@ -23591,7 +23594,7 @@
         <v>0.607463859413413</v>
       </c>
       <c r="D438" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E438">
         <v>0.7080509960514676</v>
@@ -23641,7 +23644,7 @@
         <v>0.5618361185264305</v>
       </c>
       <c r="D439" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E439">
         <v>0.7641846650786501</v>
@@ -23691,7 +23694,7 @@
         <v>0.843091600300395</v>
       </c>
       <c r="D440" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E440">
         <v>0.6381322045493234</v>
@@ -23841,7 +23844,7 @@
         <v>0.6187192665816452</v>
       </c>
       <c r="D443" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E443">
         <v>0.7814796302995877</v>
@@ -23891,7 +23894,7 @@
         <v>0.6498736304491497</v>
       </c>
       <c r="D444" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E444">
         <v>0.7327469031628255</v>
@@ -23941,7 +23944,7 @@
         <v>0.6513667213038543</v>
       </c>
       <c r="D445" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E445">
         <v>0.7327469031628255</v>
@@ -23991,7 +23994,7 @@
         <v>0.6073390847226738</v>
       </c>
       <c r="D446" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E446">
         <v>0.8068874487397402</v>
@@ -24041,7 +24044,7 @@
         <v>0.6452814488893015</v>
       </c>
       <c r="D447" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E447">
         <v>0.6566616307482733</v>
@@ -24091,7 +24094,7 @@
         <v>0.6324081761756251</v>
       </c>
       <c r="D448" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E448">
         <v>0.6566616307482733</v>
@@ -24141,7 +24144,7 @@
         <v>3.04453465086625</v>
       </c>
       <c r="D449" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E449">
         <v>3.227588908222683</v>
@@ -24191,7 +24194,7 @@
         <v>3.17945092807318</v>
       </c>
       <c r="D450" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E450">
         <v>3.063007522188033</v>
@@ -24241,7 +24244,7 @@
         <v>3.20945092807318</v>
       </c>
       <c r="D451" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E451">
         <v>3.063007522188033</v>
@@ -24291,7 +24294,7 @@
         <v>3.043174967774173</v>
       </c>
       <c r="D452" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E452">
         <v>3.116564116302887</v>
@@ -24341,7 +24344,7 @@
         <v>3.016899007475167</v>
       </c>
       <c r="D453" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E453">
         <v>3.082317621440517</v>
@@ -24391,7 +24394,7 @@
         <v>3.007233898647447</v>
       </c>
       <c r="D454" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E454">
         <v>3.082317621440517</v>
@@ -24441,7 +24444,7 @@
         <v>3.088791570954029</v>
       </c>
       <c r="D455" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E455">
         <v>3.273026012846137</v>
@@ -24491,7 +24494,7 @@
         <v>3.224061903521662</v>
       </c>
       <c r="D456" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E456">
         <v>3.106674350007975</v>
@@ -24541,7 +24544,7 @@
         <v>3.254061903521662</v>
       </c>
       <c r="D457" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E457">
         <v>3.106674350007975</v>
@@ -24591,7 +24594,7 @@
         <v>3.086133684872712</v>
       </c>
       <c r="D458" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E458">
         <v>3.15928679649429</v>
@@ -24641,7 +24644,7 @@
         <v>3.058205466223761</v>
       </c>
       <c r="D459" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E459">
         <v>3.135547580142442</v>
@@ -24691,7 +24694,7 @@
         <v>3.047124135953232</v>
       </c>
       <c r="D460" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E460">
         <v>3.135547580142442</v>
@@ -24741,7 +24744,7 @@
         <v>3.150521125316196</v>
       </c>
       <c r="D461" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E461">
         <v>3.336401688657961</v>
@@ -24791,7 +24794,7 @@
         <v>3.286285294318725</v>
       </c>
       <c r="D462" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E462">
         <v>3.167580843645313</v>
@@ -24841,7 +24844,7 @@
         <v>3.316285294318726</v>
       </c>
       <c r="D463" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E463">
         <v>3.167580843645313</v>
@@ -24891,7 +24894,7 @@
         <v>3.146052505640254</v>
       </c>
       <c r="D464" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E464">
         <v>3.218876392971901</v>
@@ -24941,7 +24944,7 @@
         <v>3.371816674642784</v>
       </c>
       <c r="D465" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E465">
         <v>3.211700280303548</v>
@@ -24991,7 +24994,7 @@
         <v>3.115819716961783</v>
       </c>
       <c r="D466" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E466">
         <v>3.192763040951665</v>
@@ -25041,7 +25044,7 @@
         <v>3.102763040951665</v>
       </c>
       <c r="D467" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E467">
         <v>3.192763040951665</v>
@@ -25091,7 +25094,7 @@
         <v>3.250761981284742</v>
       </c>
       <c r="D468" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E468">
         <v>3.352892019386371</v>
@@ -25141,7 +25144,7 @@
         <v>3.259637701013546</v>
       </c>
       <c r="D469" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E469">
         <v>3.352892019386371</v>
@@ -25191,7 +25194,7 @@
         <v>3.477389140471154</v>
       </c>
       <c r="D470" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E470">
         <v>3.315259102369525</v>
@@ -25241,7 +25244,7 @@
         <v>3.199993268335832</v>
       </c>
       <c r="D471" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E471">
         <v>3.344490389420615</v>
@@ -25291,7 +25294,7 @@
         <v>3.400999026166265</v>
       </c>
       <c r="D472" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E472">
         <v>3.399106032946159</v>
@@ -25341,7 +25344,7 @@
         <v>3.232166856850583</v>
       </c>
       <c r="D473" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E473">
         <v>3.333939296405402</v>
@@ -25391,7 +25394,7 @@
         <v>3.2409914910727</v>
       </c>
       <c r="D474" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E474">
         <v>3.333939296405402</v>
@@ -25441,7 +25444,7 @@
         <v>3.458640759516934</v>
       </c>
       <c r="D475" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E475">
         <v>3.296868319962115</v>
@@ -25491,7 +25494,7 @@
         <v>3.182726367075541</v>
       </c>
       <c r="D476" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E476">
         <v>3.327427830187073</v>
@@ -25541,7 +25544,7 @@
         <v>3.383323440852477</v>
       </c>
       <c r="D477" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E477">
         <v>3.422707585299552</v>
@@ -25591,7 +25594,7 @@
         <v>3.186242457408586</v>
       </c>
       <c r="D478" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E478">
         <v>3.287131735435674</v>
@@ -25641,7 +25644,7 @@
         <v>3.19494092569817</v>
       </c>
       <c r="D479" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E479">
         <v>3.287131735435674</v>
@@ -25691,7 +25694,7 @@
         <v>3.412337862277338</v>
       </c>
       <c r="D480" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E480">
         <v>3.25144858425025</v>
@@ -25741,7 +25744,7 @@
         <v>3.140082281879401</v>
       </c>
       <c r="D481" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E481">
         <v>3.285288408721065</v>
@@ -25791,7 +25794,7 @@
         <v>3.339670028196073</v>
       </c>
       <c r="D482" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E482">
         <v>3.400906789246056</v>
@@ -25841,7 +25844,7 @@
         <v>3.135140790391086</v>
       </c>
       <c r="D483" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E483">
         <v>3.235047344052453</v>
@@ -25891,7 +25894,7 @@
         <v>3.143698869485567</v>
       </c>
       <c r="D484" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E484">
         <v>3.235047344052453</v>
@@ -25941,7 +25944,7 @@
         <v>3.360815027674529</v>
       </c>
       <c r="D485" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E485">
         <v>3.200908474013162</v>
@@ -25991,7 +25994,7 @@
         <v>3.09263073393458</v>
       </c>
       <c r="D486" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E486">
         <v>3.238398417556656</v>
@@ -26041,7 +26044,7 @@
         <v>3.291095366690428</v>
       </c>
       <c r="D487" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E487">
         <v>3.184259547517365</v>
@@ -26091,7 +26094,7 @@
         <v>3.077221876472264</v>
       </c>
       <c r="D488" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E488">
         <v>3.176014604865962</v>
@@ -26141,7 +26144,7 @@
         <v>3.085620837671364</v>
       </c>
       <c r="D489" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E489">
         <v>3.176014604865962</v>
@@ -26191,7 +26194,7 @@
         <v>3.302418760069563</v>
       </c>
       <c r="D490" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E490">
         <v>3.143626031675866</v>
@@ -26241,7 +26244,7 @@
         <v>3.038848885295674</v>
       </c>
       <c r="D491" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E491">
         <v>3.165253040499276</v>
@@ -26291,7 +26294,7 @@
         <v>3.236040574888471</v>
       </c>
       <c r="D492" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E492">
         <v>3.132864467309179</v>
@@ -26341,7 +26344,7 @@
         <v>3.021307148326652</v>
       </c>
       <c r="D493" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E493">
         <v>3.119024593486779</v>
@@ -26391,7 +26394,7 @@
         <v>3.029552497635241</v>
       </c>
       <c r="D494" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E494">
         <v>3.119024593486779</v>
@@ -26441,7 +26444,7 @@
         <v>3.246043196252421</v>
       </c>
       <c r="D495" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E495">
         <v>3.108325751092293</v>
@@ -26491,7 +26494,7 @@
         <v>2.986928066303319</v>
       </c>
       <c r="D496" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E496">
         <v>3.113946669068961</v>
@@ -26541,7 +26544,7 @@
         <v>3.182890860772037</v>
       </c>
       <c r="D497" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E497">
         <v>3.083247826674474</v>
@@ -26591,7 +26594,7 @@
         <v>2.342797895070453</v>
       </c>
       <c r="D498" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E498">
         <v>2.260374458641418</v>
@@ -26641,7 +26644,7 @@
         <v>2.350109810873272</v>
       </c>
       <c r="D499" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E499">
         <v>2.260374458641418</v>
@@ -26691,7 +26694,7 @@
         <v>2.146015274803929</v>
       </c>
       <c r="D500" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E500">
         <v>2.1830625428386</v>
@@ -26741,7 +26744,7 @@
         <v>2.327754943223618</v>
       </c>
       <c r="D501" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E501">
         <v>2.244961218749122</v>
@@ -26791,7 +26794,7 @@
         <v>2.334465140952562</v>
       </c>
       <c r="D502" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E502">
         <v>2.244961218749122</v>
@@ -26891,7 +26894,7 @@
         <v>2.319467373392305</v>
       </c>
       <c r="D504" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E504">
         <v>2.236469647198885</v>
@@ -26941,7 +26944,7 @@
         <v>2.31421566803737</v>
       </c>
       <c r="D505" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E505">
         <v>2.236469647198885</v>
@@ -26991,7 +26994,7 @@
         <v>2.325846068327998</v>
       </c>
       <c r="D506" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E506">
         <v>2.236469647198885</v>
@@ -27141,7 +27144,7 @@
         <v>2.29669723260047</v>
       </c>
       <c r="D509" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E509">
         <v>2.213139010633713</v>
@@ -27191,7 +27194,7 @@
         <v>2.290255454567228</v>
       </c>
       <c r="D510" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E510">
         <v>2.213139010633713</v>
@@ -27241,7 +27244,7 @@
         <v>2.291865899075538</v>
       </c>
       <c r="D511" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E511">
         <v>2.213139010633713</v>
@@ -27291,7 +27294,7 @@
         <v>2.290255454567228</v>
       </c>
       <c r="D512" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E512">
         <v>2.213139010633713</v>
@@ -27341,7 +27344,7 @@
         <v>2.302165121904489</v>
       </c>
       <c r="D513" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E513">
         <v>2.213139010633713</v>
@@ -27391,7 +27394,7 @@
         <v>2.103177120754899</v>
       </c>
       <c r="D514" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E514">
         <v>2.137034565550607</v>
@@ -27441,7 +27444,7 @@
         <v>2.142839787804762</v>
       </c>
       <c r="D515" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E515">
         <v>2.137034565550607</v>
@@ -27491,7 +27494,7 @@
         <v>2.252285645564987</v>
       </c>
       <c r="D516" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E516">
         <v>2.150794548877799</v>
@@ -27541,7 +27544,7 @@
         <v>2.253825373008877</v>
       </c>
       <c r="D517" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E517">
         <v>2.150794548877799</v>
@@ -27591,7 +27594,7 @@
         <v>2.245267838939363</v>
       </c>
       <c r="D518" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E518">
         <v>2.150794548877799</v>
@@ -27641,7 +27644,7 @@
         <v>2.077812355503423</v>
       </c>
       <c r="D519" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E519">
         <v>2.103484957711964</v>
@@ -27691,7 +27694,7 @@
         <v>2.082139753294881</v>
       </c>
       <c r="D520" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E520">
         <v>2.103484957711964</v>
@@ -27741,7 +27744,7 @@
         <v>2.06646715108634</v>
       </c>
       <c r="D521" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E521">
         <v>2.103484957711964</v>
@@ -27791,7 +27794,7 @@
         <v>2.090745918121097</v>
       </c>
       <c r="D522" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E522">
         <v>2.103484957711964</v>
@@ -27841,7 +27844,7 @@
         <v>2.075024685155854</v>
       </c>
       <c r="D523" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E523">
         <v>2.103484957711964</v>
@@ -27891,7 +27894,7 @@
         <v>2.060794548877799</v>
       </c>
       <c r="D524" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E524">
         <v>2.103484957711964</v>
@@ -27941,7 +27944,7 @@
         <v>2.069303452190611</v>
       </c>
       <c r="D525" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E525">
         <v>2.103484957711964</v>
@@ -27991,7 +27994,7 @@
         <v>2.235794973324022</v>
       </c>
       <c r="D526" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E526">
         <v>2.134754989251328</v>
@@ -28041,7 +28044,7 @@
         <v>2.236532722786588</v>
       </c>
       <c r="D527" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E527">
         <v>2.134754989251328</v>
@@ -28091,7 +28094,7 @@
         <v>2.227874941469409</v>
       </c>
       <c r="D528" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E528">
         <v>2.134754989251328</v>
@@ -28491,7 +28494,7 @@
         <v>2.218562303157827</v>
       </c>
       <c r="D536" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E536">
         <v>2.118086773943491</v>
@@ -28541,7 +28544,7 @@
         <v>2.209800345494974</v>
       </c>
       <c r="D537" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E537">
         <v>2.118086773943491</v>
@@ -28941,7 +28944,7 @@
         <v>2.184023139644117</v>
       </c>
       <c r="D545" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E545">
         <v>2.086050448365558</v>
@@ -29291,7 +29294,7 @@
         <v>2.16582352197271</v>
       </c>
       <c r="D552" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E552">
         <v>2.06916964356889</v>
@@ -30441,7 +30444,7 @@
         <v>1.870782451615314</v>
       </c>
       <c r="D575" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E575">
         <v>1.931182114146377</v>
@@ -30691,7 +30694,7 @@
         <v>1.843661855238495</v>
       </c>
       <c r="D580" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E580">
         <v>1.903539967839235</v>
@@ -30941,7 +30944,7 @@
         <v>1.833210636705716</v>
       </c>
       <c r="D585" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E585">
         <v>1.892887764334672</v>
@@ -31191,7 +31194,7 @@
         <v>1.816078373787497</v>
       </c>
       <c r="D590" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E590">
         <v>1.875426034821872</v>
@@ -31441,7 +31444,7 @@
         <v>1.793197319455629</v>
       </c>
       <c r="D595" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E595">
         <v>1.852104960214391</v>
@@ -31691,7 +31694,7 @@
         <v>1.746810413418808</v>
       </c>
       <c r="D600" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E600">
         <v>1.804825998292247</v>
@@ -31741,7 +31744,7 @@
         <v>1.724164526583393</v>
       </c>
       <c r="D601" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E601">
         <v>1.792102187089639</v>
@@ -31791,7 +31794,7 @@
         <v>1.742141149273235</v>
       </c>
       <c r="D602" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E602">
         <v>1.792102187089639</v>
@@ -31941,7 +31944,7 @@
         <v>1.655743650910969</v>
       </c>
       <c r="D605" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E605">
         <v>1.728812877092647</v>
@@ -31991,7 +31994,7 @@
         <v>1.675644610729098</v>
       </c>
       <c r="D606" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E606">
         <v>1.728812877092647</v>
@@ -32191,7 +32194,7 @@
         <v>1.663577076606711</v>
       </c>
       <c r="D610" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E610">
         <v>1.700809454798657</v>
@@ -32241,7 +32244,7 @@
         <v>1.638797001647908</v>
       </c>
       <c r="D611" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E611">
         <v>1.713137226524315</v>
@@ -32291,7 +32294,7 @@
         <v>1.659174585976561</v>
       </c>
       <c r="D612" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E612">
         <v>1.713137226524315</v>
@@ -32491,7 +32494,7 @@
         <v>1.647649930849429</v>
       </c>
       <c r="D616" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E616">
         <v>1.684218677968156</v>
@@ -32541,7 +32544,7 @@
         <v>1.622461467537876</v>
       </c>
       <c r="D617" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E617">
         <v>1.698026857472536</v>
@@ -32591,7 +32594,7 @@
         <v>1.643298488763373</v>
       </c>
       <c r="D618" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E618">
         <v>1.698026857472536</v>
@@ -32777,7 +32780,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32791,7 +32794,7 @@
         <v>1.640202327565719</v>
       </c>
       <c r="D622" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E622">
         <v>1.676460757880957</v>
@@ -32827,7 +32830,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32841,7 +32844,7 @@
         <v>1.614822900067404</v>
       </c>
       <c r="D623" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E623">
         <v>1.690961182562349</v>
@@ -32877,7 +32880,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -32891,7 +32894,7 @@
         <v>1.635874756003008</v>
       </c>
       <c r="D624" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E624">
         <v>1.690961182562349</v>
@@ -32927,7 +32930,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -32941,7 +32944,7 @@
         <v>1.732306039436927</v>
       </c>
       <c r="D625" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E625">
         <v>1.755754608182714</v>
@@ -32977,7 +32980,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -32991,7 +32994,7 @@
         <v>1.708271468813191</v>
       </c>
       <c r="D626" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E626">
         <v>1.605874756003008</v>
@@ -33027,7 +33030,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33077,7 +33080,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33141,7 +33144,7 @@
         <v>1.655859670210767</v>
       </c>
       <c r="D629" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E629">
         <v>1.692770489802882</v>
@@ -33191,7 +33194,7 @@
         <v>1.630881713036684</v>
       </c>
       <c r="D630" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E630">
         <v>1.705815584558933</v>
@@ -33241,7 +33244,7 @@
         <v>1.651481914857527</v>
       </c>
       <c r="D631" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E631">
         <v>1.705815584558933</v>
@@ -33291,7 +33294,7 @@
         <v>1.747060073852453</v>
       </c>
       <c r="D632" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E632">
         <v>1.769504966787661</v>
@@ -33341,7 +33344,7 @@
         <v>1.723326605971891</v>
       </c>
       <c r="D633" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E633">
         <v>1.621481914857527</v>
@@ -33441,7 +33444,7 @@
         <v>1.654563661523334</v>
       </c>
       <c r="D635" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E635">
         <v>1.697791976760818</v>
@@ -33491,7 +33494,7 @@
         <v>1.641020291998303</v>
       </c>
       <c r="D636" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E636">
         <v>1.71519377009843</v>
@@ -33541,7 +33544,7 @@
         <v>1.66133534628585</v>
       </c>
       <c r="D637" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E637">
         <v>1.71519377009843</v>
@@ -33591,7 +33594,7 @@
         <v>1.75637489327344</v>
       </c>
       <c r="D638" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E638">
         <v>1.778186125023546</v>
@@ -33641,7 +33644,7 @@
         <v>1.732831523748409</v>
       </c>
       <c r="D639" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E639">
         <v>1.63133534628585</v>
@@ -33741,7 +33744,7 @@
         <v>1.657101835410064</v>
       </c>
       <c r="D641" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E641">
         <v>1.70035440071653</v>
@@ -33791,7 +33794,7 @@
         <v>1.643606966022995</v>
       </c>
       <c r="D642" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E642">
         <v>1.71758644357127</v>
@@ -33841,7 +33844,7 @@
         <v>1.663849270103598</v>
       </c>
       <c r="D643" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E643">
         <v>1.71758644357127</v>
@@ -33891,7 +33894,7 @@
         <v>1.758751400033627</v>
       </c>
       <c r="D644" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E644">
         <v>1.780400964657189</v>
@@ -33941,7 +33944,7 @@
         <v>1.735256530646558</v>
       </c>
       <c r="D645" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E645">
         <v>1.633849270103598</v>
@@ -34041,7 +34044,7 @@
         <v>1.65826679187242</v>
       </c>
       <c r="D647" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E647">
         <v>1.669431748334776</v>
@@ -34091,7 +34094,7 @@
         <v>1.640968249843906</v>
       </c>
       <c r="D648" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E648">
         <v>1.684066672613115</v>
@@ -34141,7 +34144,7 @@
         <v>1.627165095382324</v>
       </c>
       <c r="D649" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E649">
         <v>1.70237771322865</v>
@@ -34191,7 +34194,7 @@
         <v>1.647869827074696</v>
       </c>
       <c r="D650" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E650">
         <v>1.70237771322865</v>
@@ -34241,7 +34244,7 @@
         <v>1.74364543138251</v>
       </c>
       <c r="D651" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E651">
         <v>1.766322612921115</v>
@@ -34291,7 +34294,7 @@
         <v>1.719842276920929</v>
       </c>
       <c r="D652" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E652">
         <v>1.617869827074696</v>
@@ -34441,7 +34444,7 @@
         <v>1.626677142973596</v>
       </c>
       <c r="D655" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E655">
         <v>1.669639026505191</v>
@@ -34477,7 +34480,7 @@
         <v>1</v>
       </c>
       <c r="P655" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -34527,7 +34530,7 @@
         <v>1</v>
       </c>
       <c r="P656" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -34541,7 +34544,7 @@
         <v>1.612600910036786</v>
       </c>
       <c r="D657" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E657">
         <v>1.688905841784027</v>
@@ -34577,7 +34580,7 @@
         <v>1</v>
       </c>
       <c r="P657" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -34591,7 +34594,7 @@
         <v>1.730264586096297</v>
       </c>
       <c r="D658" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E658">
         <v>1.753852029218998</v>
@@ -34627,7 +34630,7 @@
         <v>1</v>
       </c>
       <c r="P658" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -34641,7 +34644,7 @@
         <v>1.706188353159487</v>
       </c>
       <c r="D659" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E659">
         <v>1.603715259442001</v>
@@ -34677,7 +34680,7 @@
         <v>1</v>
       </c>
       <c r="P659" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -34727,7 +34730,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34777,7 +34780,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34827,7 +34830,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34841,7 +34844,7 @@
         <v>1.603342166470997</v>
       </c>
       <c r="D663" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E663">
         <v>1.646081104367217</v>
@@ -34941,7 +34944,7 @@
         <v>1.588820042263437</v>
       </c>
       <c r="D665" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E665">
         <v>1.666908539093679</v>
@@ -34991,7 +34994,7 @@
         <v>1.708415913829532</v>
       </c>
       <c r="D666" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E666">
         <v>1.733489661188067</v>
@@ -35041,7 +35044,7 @@
         <v>1.683893789621972</v>
       </c>
       <c r="D667" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E667">
         <v>1.580603228574778</v>
@@ -35141,7 +35144,7 @@
         <v>1.549741086031148</v>
       </c>
       <c r="D669" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E669">
         <v>1.595653849911554</v>
@@ -35241,7 +35244,7 @@
         <v>1.537915558270338</v>
       </c>
       <c r="D671" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E671">
         <v>1.619821891400063</v>
@@ -35291,7 +35294,7 @@
         <v>1.661647419160873</v>
       </c>
       <c r="D672" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E672">
         <v>1.689902696768977</v>
@@ -35341,7 +35344,7 @@
         <v>1.636170835878442</v>
       </c>
       <c r="D673" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E673">
         <v>1.531130433193985</v>
@@ -35441,7 +35444,7 @@
         <v>1.503924552649181</v>
       </c>
       <c r="D675" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E675">
         <v>1.549981393678586</v>
@@ -35541,7 +35544,7 @@
         <v>1.491810870590371</v>
       </c>
       <c r="D677" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E677">
         <v>1.577175055296093</v>
@@ -35641,7 +35644,7 @@
         <v>1.579004532207878</v>
       </c>
       <c r="D679" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E679">
         <v>1.486322439855017</v>
@@ -35741,7 +35744,7 @@
         <v>1.451464892151423</v>
       </c>
       <c r="D681" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E681">
         <v>1.539855025240066</v>
@@ -35791,7 +35794,7 @@
         <v>1.541306258603986</v>
       </c>
       <c r="D682" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E682">
         <v>1.447111192059664</v>
@@ -35891,7 +35894,7 @@
         <v>1.384762417595611</v>
       </c>
       <c r="D684" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E684">
         <v>1.435893357155721</v>
@@ -35941,7 +35944,7 @@
         <v>1.478981133940899</v>
       </c>
       <c r="D685" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E685">
         <v>1.382284724600735</v>
@@ -36091,7 +36094,7 @@
         <v>1.324231020344207</v>
       </c>
       <c r="D688" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E688">
         <v>1.376875244835602</v>
@@ -36141,7 +36144,7 @@
         <v>1.417710558616908</v>
       </c>
       <c r="D689" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E689">
         <v>1.323455772897027</v>
@@ -36191,7 +36194,7 @@
         <v>1.422422109634119</v>
       </c>
       <c r="D690" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E690">
         <v>1.323455772897027</v>
@@ -36241,7 +36244,7 @@
         <v>1.304231020344207</v>
       </c>
       <c r="D691" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E691">
         <v>1.317392076467056</v>
@@ -36291,7 +36294,7 @@
         <v>1.314231020344207</v>
       </c>
       <c r="D692" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E692">
         <v>1.317392076467056</v>
@@ -36341,7 +36344,7 @@
         <v>1.258167746371047</v>
       </c>
       <c r="D693" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E693">
         <v>1.312463552711771</v>
@@ -36391,7 +36394,7 @@
         <v>1.359285850696895</v>
       </c>
       <c r="D694" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E694">
         <v>1.259250528504362</v>
@@ -36441,7 +36444,7 @@
         <v>1.360694238015447</v>
       </c>
       <c r="D695" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E695">
         <v>1.259250528504362</v>
@@ -36491,7 +36494,7 @@
         <v>1.238167746371047</v>
       </c>
       <c r="D696" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E696">
         <v>1.265315649541409</v>
@@ -36541,7 +36544,7 @@
         <v>1.248167746371047</v>
       </c>
       <c r="D697" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E697">
         <v>1.265315649541409</v>
@@ -36591,7 +36594,7 @@
         <v>1.213323561242115</v>
       </c>
       <c r="D698" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E698">
         <v>1.268740472211062</v>
@@ -36641,7 +36644,7 @@
         <v>1.319626774473495</v>
       </c>
       <c r="D699" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E699">
         <v>1.215667586082181</v>
@@ -36691,7 +36694,7 @@
         <v>1.318792952535601</v>
       </c>
       <c r="D700" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E700">
         <v>1.215667586082181</v>
@@ -36741,7 +36744,7 @@
         <v>1.193323561242115</v>
       </c>
       <c r="D701" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E701">
         <v>1.242594699953299</v>
@@ -36791,7 +36794,7 @@
         <v>1.203323561242115</v>
       </c>
       <c r="D702" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E702">
         <v>1.242594699953299</v>
@@ -36841,7 +36844,7 @@
         <v>1.185591495092054</v>
       </c>
       <c r="D703" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E703">
         <v>1.241701707714753</v>
@@ -36891,7 +36894,7 @@
         <v>1.295101228472035</v>
       </c>
       <c r="D704" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E704">
         <v>1.18871548429259</v>
@@ -36941,7 +36944,7 @@
         <v>1.292880803226638</v>
       </c>
       <c r="D705" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E705">
         <v>1.18871548429259</v>
@@ -36991,7 +36994,7 @@
         <v>1.165591495092054</v>
       </c>
       <c r="D706" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E706">
         <v>1.20871548429259</v>
@@ -37041,7 +37044,7 @@
         <v>1.175591495092054</v>
       </c>
       <c r="D707" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E707">
         <v>1.20871548429259</v>
@@ -37091,7 +37094,7 @@
         <v>1.094057073124941</v>
       </c>
       <c r="D708" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E708">
         <v>1.152455646296817</v>
@@ -37141,7 +37144,7 @@
         <v>1.214150474044869</v>
       </c>
       <c r="D709" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E709">
         <v>1.099755467943302</v>
@@ -37191,7 +37194,7 @@
         <v>1.207353327701116</v>
       </c>
       <c r="D710" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E710">
         <v>1.099755467943302</v>
@@ -37241,7 +37244,7 @@
         <v>1.074057073124941</v>
       </c>
       <c r="D711" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E711">
         <v>1.158154041115179</v>
@@ -37291,7 +37294,7 @@
         <v>1.084057073124941</v>
       </c>
       <c r="D712" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E712">
         <v>1.158154041115179</v>
@@ -37341,7 +37344,7 @@
         <v>1.08323369694283</v>
       </c>
       <c r="D713" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E713">
         <v>1.14190285451926</v>
@@ -37391,7 +37394,7 @@
         <v>1.204578550733816</v>
       </c>
       <c r="D714" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E714">
         <v>1.089236499216313</v>
@@ -37441,7 +37444,7 @@
         <v>1.197240235580957</v>
       </c>
       <c r="D715" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E715">
         <v>1.089236499216313</v>
@@ -37491,7 +37494,7 @@
         <v>1.06323369694283</v>
       </c>
       <c r="D716" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E716">
         <v>1.147905656792743</v>
@@ -37541,7 +37544,7 @@
         <v>1.07323369694283</v>
       </c>
       <c r="D717" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E717">
         <v>1.147905656792743</v>
@@ -37591,7 +37594,7 @@
         <v>1.072624596032999</v>
       </c>
       <c r="D718" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E718">
         <v>1.131558981132174</v>
@@ -37641,7 +37644,7 @@
         <v>1.195196127116683</v>
       </c>
       <c r="D719" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E719">
         <v>1.078925779269571</v>
@@ -37691,7 +37694,7 @@
         <v>1.187327356918333</v>
       </c>
       <c r="D720" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E720">
         <v>1.078925779269571</v>
@@ -37741,7 +37744,7 @@
         <v>1.052624596032999</v>
       </c>
       <c r="D721" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E721">
         <v>1.137860164368746</v>
@@ -37791,7 +37794,7 @@
         <v>1.062624596032999</v>
       </c>
       <c r="D722" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E722">
         <v>1.137860164368746</v>
@@ -37841,7 +37844,7 @@
         <v>1.065907422001725</v>
       </c>
       <c r="D723" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E723">
         <v>1.125009736451682</v>
@@ -37891,7 +37894,7 @@
         <v>1.189255626332775</v>
       </c>
       <c r="D724" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E724">
         <v>1.072397525757927</v>
@@ -37941,7 +37944,7 @@
         <v>1.181050997432862</v>
       </c>
       <c r="D725" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E725">
         <v>1.072397525757927</v>
@@ -37991,7 +37994,7 @@
         <v>1.045907422001725</v>
       </c>
       <c r="D726" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E726">
         <v>1.131499840207884</v>
@@ -38041,7 +38044,7 @@
         <v>1.055907422001725</v>
       </c>
       <c r="D727" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E727">
         <v>1.131499840207884</v>
@@ -38091,7 +38094,7 @@
         <v>1.056926721303003</v>
       </c>
       <c r="D728" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E728">
         <v>1.116253553270428</v>
@@ -38127,7 +38130,7 @@
         <v>1</v>
       </c>
       <c r="P728" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -38141,7 +38144,7 @@
         <v>1.181313319152343</v>
       </c>
       <c r="D729" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E729">
         <v>1.063669407266356</v>
@@ -38177,7 +38180,7 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38191,7 +38194,7 @@
         <v>1.172659655217493</v>
       </c>
       <c r="D730" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E730">
         <v>1.063669407266356</v>
@@ -38227,7 +38230,7 @@
         <v>1</v>
       </c>
       <c r="P730" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38241,7 +38244,7 @@
         <v>1.036926721303003</v>
       </c>
       <c r="D731" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E731">
         <v>1.122996239233781</v>
@@ -38277,7 +38280,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -38291,7 +38294,7 @@
         <v>1.046926721303003</v>
       </c>
       <c r="D732" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E732">
         <v>1.122996239233781</v>
@@ -38327,7 +38330,7 @@
         <v>1</v>
       </c>
       <c r="P732" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -38341,7 +38344,7 @@
         <v>1.053932178361847</v>
       </c>
       <c r="D733" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E733">
         <v>1.113333873902801</v>
@@ -38391,7 +38394,7 @@
         <v>1.178665020238758</v>
       </c>
       <c r="D734" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E734">
         <v>1.06075908584542</v>
@@ -38441,7 +38444,7 @@
         <v>1.169861629156851</v>
       </c>
       <c r="D735" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E735">
         <v>1.06075908584542</v>
@@ -38491,7 +38494,7 @@
         <v>1.033932178361847</v>
       </c>
       <c r="D736" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E736">
         <v>1.120160781386374</v>
@@ -38541,7 +38544,7 @@
         <v>1.043932178361846</v>
       </c>
       <c r="D737" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E737">
         <v>1.120160781386374</v>
@@ -38591,7 +38594,7 @@
         <v>1.058179356902575</v>
       </c>
       <c r="D738" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E738">
         <v>1.117474872980011</v>
@@ -38641,7 +38644,7 @@
         <v>1.182421118760715</v>
       </c>
       <c r="D739" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E739">
         <v>1.064886812489691</v>
@@ -38691,7 +38694,7 @@
         <v>1.173830086605844</v>
       </c>
       <c r="D740" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E740">
         <v>1.064886812489691</v>
@@ -38741,7 +38744,7 @@
         <v>1.038179356902575</v>
       </c>
       <c r="D741" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E741">
         <v>1.124182328567127</v>
@@ -38791,7 +38794,7 @@
         <v>1.048179356902575</v>
       </c>
       <c r="D742" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E742">
         <v>1.124182328567127</v>
@@ -38841,7 +38844,7 @@
         <v>1.049590611894549</v>
       </c>
       <c r="D743" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E743">
         <v>1.109100846597185</v>
@@ -38891,7 +38894,7 @@
         <v>1.174825447394241</v>
       </c>
       <c r="D744" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E744">
         <v>1.056539625935014</v>
@@ -38941,7 +38944,7 @@
         <v>1.153243757326798</v>
       </c>
       <c r="D745" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E745">
         <v>1.056539625935014</v>
@@ -38991,7 +38994,7 @@
         <v>1.029590611894549</v>
       </c>
       <c r="D746" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E746">
         <v>1.116049860637651</v>
@@ -39041,7 +39044,7 @@
         <v>1.039590611894548</v>
       </c>
       <c r="D747" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E747">
         <v>1.116049860637651</v>
@@ -39091,7 +39094,7 @@
         <v>1.039590611894548</v>
       </c>
       <c r="D748" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E748">
         <v>1.057029391232378</v>
@@ -39141,7 +39144,7 @@
         <v>1.176754623890308</v>
       </c>
       <c r="D749" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E749">
         <v>1.058659675017265</v>
@@ -39191,7 +39194,7 @@
         <v>1.155275186994035</v>
       </c>
       <c r="D750" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E750">
         <v>1.058659675017265</v>
@@ -39241,7 +39244,7 @@
         <v>1.031772012879501</v>
       </c>
       <c r="D751" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E751">
         <v>1.118115374695277</v>
@@ -39291,7 +39294,7 @@
         <v>1.0417720128795</v>
       </c>
       <c r="D752" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E752">
         <v>1.118115374695277</v>
@@ -39391,7 +39394,7 @@
         <v>1.175930195795866</v>
       </c>
       <c r="D754" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E754">
         <v>1.057753678065422</v>
@@ -39441,7 +39444,7 @@
         <v>1.154407061297414</v>
       </c>
       <c r="D755" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E755">
         <v>1.057753678065422</v>
@@ -39491,7 +39494,7 @@
         <v>1.030839797366351</v>
       </c>
       <c r="D756" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E756">
         <v>1.117232683131264</v>
@@ -39541,7 +39544,7 @@
         <v>1.04083979736635</v>
       </c>
       <c r="D757" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E757">
         <v>1.117232683131264</v>
@@ -39641,7 +39644,7 @@
         <v>1.183012720023128</v>
       </c>
       <c r="D759" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E759">
         <v>1.065536946739198</v>
@@ -39677,7 +39680,7 @@
         <v>1</v>
       </c>
       <c r="P759" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -39691,7 +39694,7 @@
         <v>1.161864984335309</v>
       </c>
       <c r="D760" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E760">
         <v>1.065536946739198</v>
@@ -39727,7 +39730,7 @@
         <v>1</v>
       </c>
       <c r="P760" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -39741,7 +39744,7 @@
         <v>1.038848305326506</v>
       </c>
       <c r="D761" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E761">
         <v>1.124815739106036</v>
@@ -39777,7 +39780,7 @@
         <v>1</v>
       </c>
       <c r="P761" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -39791,7 +39794,7 @@
         <v>1.048848305326506</v>
       </c>
       <c r="D762" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E762">
         <v>1.124815739106036</v>
@@ -39827,7 +39830,7 @@
         <v>1</v>
       </c>
       <c r="P762" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -39877,7 +39880,7 @@
         <v>1</v>
       </c>
       <c r="P763" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -39927,7 +39930,7 @@
         <v>1</v>
       </c>
       <c r="P764" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -39941,7 +39944,7 @@
         <v>1.197280790137235</v>
       </c>
       <c r="D765" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E765">
         <v>1.08121669870205</v>
@@ -39977,7 +39980,7 @@
         <v>1</v>
       </c>
       <c r="P765" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="766" spans="1:16">
@@ -39991,7 +39994,7 @@
         <v>1.176889312582672</v>
       </c>
       <c r="D766" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E766">
         <v>1.08121669870205</v>
@@ -40027,7 +40030,7 @@
         <v>1</v>
       </c>
       <c r="P766" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -40041,7 +40044,7 @@
         <v>1.054981812169312</v>
       </c>
       <c r="D767" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E767">
         <v>1.140092153397818</v>
@@ -40077,7 +40080,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40091,7 +40094,7 @@
         <v>1.064981812169312</v>
       </c>
       <c r="D768" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E768">
         <v>1.140092153397818</v>
@@ -40127,7 +40130,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40141,7 +40144,7 @@
         <v>1.064981812169312</v>
       </c>
       <c r="D769" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E769">
         <v>1.091778971354167</v>
@@ -40177,7 +40180,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40191,7 +40194,7 @@
         <v>1.062341244006283</v>
       </c>
       <c r="D770" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E770">
         <v>1.091778971354167</v>
@@ -40227,7 +40230,7 @@
         <v>1</v>
       </c>
       <c r="P770" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -40241,7 +40244,7 @@
         <v>1.208044694669152</v>
       </c>
       <c r="D771" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E771">
         <v>1.093045583187655</v>
@@ -40291,7 +40294,7 @@
         <v>1.188223742089779</v>
       </c>
       <c r="D772" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E772">
         <v>1.093045583187655</v>
@@ -40341,7 +40344,7 @@
         <v>1.067153011640031</v>
       </c>
       <c r="D773" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E773">
         <v>1.151616757896655</v>
@@ -40391,7 +40394,7 @@
         <v>1.077153011640031</v>
       </c>
       <c r="D774" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E774">
         <v>1.151616757896655</v>
@@ -40541,7 +40544,7 @@
         <v>1.210690022633662</v>
       </c>
       <c r="D777" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E777">
         <v>1.095952639714024</v>
@@ -40591,7 +40594,7 @@
         <v>1.191009281783856</v>
       </c>
       <c r="D778" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E778">
         <v>1.095952639714024</v>
@@ -40641,7 +40644,7 @@
         <v>1.07014419520414</v>
       </c>
       <c r="D779" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E779">
         <v>1.154449034833921</v>
@@ -40691,7 +40694,7 @@
         <v>1.08014419520414</v>
       </c>
       <c r="D780" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E780">
         <v>1.154449034833921</v>
@@ -40841,7 +40844,7 @@
         <v>1.217704163115837</v>
       </c>
       <c r="D783" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E783">
         <v>1.103660758759807</v>
@@ -40891,7 +40894,7 @@
         <v>1.198395196496535</v>
       </c>
       <c r="D784" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E784">
         <v>1.103660758759807</v>
@@ -40941,7 +40944,7 @@
         <v>1.078075378788226</v>
       </c>
       <c r="D785" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E785">
         <v>1.161958874290101</v>
@@ -40991,7 +40994,7 @@
         <v>1.088075378788226</v>
       </c>
       <c r="D786" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E786">
         <v>1.161958874290101</v>
@@ -41041,7 +41044,7 @@
         <v>1.088075378788226</v>
       </c>
       <c r="D787" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E787">
         <v>1.113660758759807</v>
@@ -41091,7 +41094,7 @@
         <v>1.085362643229513</v>
       </c>
       <c r="D788" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E788">
         <v>1.113660758759807</v>
@@ -41141,7 +41144,7 @@
         <v>1.082649907670799</v>
       </c>
       <c r="D789" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E789">
         <v>1.113660758759807</v>
@@ -41191,7 +41194,7 @@
         <v>1.106686758779821</v>
       </c>
       <c r="D790" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E790">
         <v>1.193186608417037</v>
@@ -41241,7 +41244,7 @@
         <v>1.099502556167336</v>
       </c>
       <c r="D791" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E791">
         <v>1.130081392742127</v>
@@ -41291,7 +41294,7 @@
         <v>1.115423569229761</v>
       </c>
       <c r="D792" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E792">
         <v>1.130081392742127</v>
@@ -41341,7 +41344,7 @@
         <v>1.095712987517157</v>
       </c>
       <c r="D793" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E793">
         <v>1.130081392742127</v>
@@ -41427,7 +41430,7 @@
         <v>1</v>
       </c>
       <c r="P794" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -41477,7 +41480,7 @@
         <v>1</v>
       </c>
       <c r="P795" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="796" spans="1:16">
@@ -41491,7 +41494,7 @@
         <v>1.137141581995058</v>
       </c>
       <c r="D796" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E796">
         <v>1.221844407902182</v>
@@ -41527,7 +41530,7 @@
         <v>1</v>
       </c>
       <c r="P796" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -41541,7 +41544,7 @@
         <v>1.130051959578893</v>
       </c>
       <c r="D797" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E797">
         <v>1.196396295821359</v>
@@ -41577,7 +41580,7 @@
         <v>1</v>
       </c>
       <c r="P797" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="798" spans="1:16">
@@ -41591,7 +41594,7 @@
         <v>1.145500071659715</v>
       </c>
       <c r="D798" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E798">
         <v>1.196396295821359</v>
@@ -41627,7 +41630,7 @@
         <v>1</v>
       </c>
       <c r="P798" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="799" spans="1:16">
@@ -41641,7 +41644,7 @@
         <v>1.271010431747382</v>
       </c>
       <c r="D799" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E799">
         <v>1.221207495083362</v>
@@ -41791,7 +41794,7 @@
         <v>1.172345439418548</v>
       </c>
       <c r="D802" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E802">
         <v>1.226108963415372</v>
@@ -41841,7 +41844,7 @@
         <v>1.165365145752146</v>
       </c>
       <c r="D803" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E803">
         <v>1.230069550748176</v>
@@ -42091,7 +42094,7 @@
         <v>1.166712237501331</v>
       </c>
       <c r="D808" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E808">
         <v>1.22068569448886</v>
@@ -42141,7 +42144,7 @@
         <v>1.159714449419038</v>
       </c>
       <c r="D809" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E809">
         <v>1.224681270653448</v>
@@ -42191,7 +42194,7 @@
         <v>1.159692330241978</v>
       </c>
       <c r="D810" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E810">
         <v>1.158698965995096</v>
@@ -42391,7 +42394,7 @@
         <v>1.164524770288927</v>
       </c>
       <c r="D814" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E814">
         <v>1.218579747793688</v>
@@ -42441,7 +42444,7 @@
         <v>1.249593492169878</v>
       </c>
       <c r="D815" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E815">
         <v>1.207566003417498</v>
@@ -42491,7 +42494,7 @@
         <v>1.157520188830197</v>
       </c>
       <c r="D816" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E816">
         <v>1.222588910711148</v>
@@ -42541,7 +42544,7 @@
         <v>1.157566003417498</v>
       </c>
       <c r="D817" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E817">
         <v>1.163556840500038</v>
@@ -42741,7 +42744,7 @@
         <v>1.159897600266931</v>
       </c>
       <c r="D821" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E821">
         <v>1.214125018890524</v>
@@ -42791,7 +42794,7 @@
         <v>1.245181873546422</v>
       </c>
       <c r="D822" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E822">
         <v>1.203068164234626</v>
@@ -42841,7 +42844,7 @@
         <v>1.152878648714965</v>
       </c>
       <c r="D823" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E823">
         <v>1.218162921994456</v>
@@ -42891,7 +42894,7 @@
         <v>1.153068164234626</v>
       </c>
       <c r="D824" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E824">
         <v>1.190087115786592</v>
@@ -43091,7 +43094,7 @@
         <v>1.128177903311872</v>
       </c>
       <c r="D828" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E828">
         <v>1.204445942858327</v>
@@ -43141,7 +43144,7 @@
         <v>1.155211408255179</v>
       </c>
       <c r="D829" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E829">
         <v>1.209613467574862</v>
@@ -43191,7 +43194,7 @@
         <v>1.148177903311872</v>
       </c>
       <c r="D830" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E830">
         <v>1.213680477461475</v>
@@ -43241,7 +43244,7 @@
         <v>1.148512952744941</v>
       </c>
       <c r="D831" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E831">
         <v>1.396216556554386</v>
@@ -43391,7 +43394,7 @@
         <v>1.125407108126525</v>
       </c>
       <c r="D834" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E834">
         <v>1.201743774179119</v>
@@ -43441,7 +43444,7 @@
         <v>1.145407108126525</v>
       </c>
       <c r="D835" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E835">
         <v>1.211038356975138</v>
@@ -43491,7 +43494,7 @@
         <v>1.145827940692267</v>
       </c>
       <c r="D836" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E836">
         <v>1.393711689080326</v>
@@ -43541,7 +43544,7 @@
         <v>1.12318384648137</v>
       </c>
       <c r="D837" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E837">
         <v>1.204820409935681</v>
@@ -43577,7 +43580,7 @@
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -43591,7 +43594,7 @@
         <v>1.129575577837869</v>
       </c>
       <c r="D838" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E838">
         <v>1.391701805487803</v>
@@ -43627,7 +43630,7 @@
         <v>1</v>
       </c>
       <c r="P838" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="839" spans="1:16">
@@ -43641,7 +43644,7 @@
         <v>1.104127865470162</v>
       </c>
       <c r="D839" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E839">
         <v>1.216287130766127</v>
@@ -43677,7 +43680,7 @@
         <v>1</v>
       </c>
       <c r="P839" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="840" spans="1:16">
@@ -43691,7 +43694,7 @@
         <v>1.102815060974694</v>
       </c>
       <c r="D840" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E840">
         <v>1.215055614474713</v>
@@ -43741,7 +43744,7 @@
         <v>1.099417800690696</v>
       </c>
       <c r="D841" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E841">
         <v>1.211868710864647</v>
@@ -43791,7 +43794,7 @@
         <v>1.095612785511939</v>
       </c>
       <c r="D842" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E842">
         <v>1.208299300340922</v>
@@ -43841,7 +43844,7 @@
         <v>1.091399382560473</v>
       </c>
       <c r="D843" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E843">
         <v>1.204346789213075</v>
@@ -43891,7 +43894,7 @@
         <v>1.079913788903188</v>
       </c>
       <c r="D844" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E844">
         <v>1.345666115427717</v>
@@ -43941,7 +43944,7 @@
         <v>1.092453811507274</v>
       </c>
       <c r="D845" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E845">
         <v>1.357290517333727</v>
@@ -43991,7 +43994,7 @@
         <v>1.109559318097137</v>
       </c>
       <c r="D846" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E846">
         <v>1.373147050426553</v>
@@ -44027,7 +44030,7 @@
         <v>1</v>
       </c>
       <c r="P846" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="847" spans="1:16">
@@ -44041,7 +44044,7 @@
         <v>1.119868742886205</v>
       </c>
       <c r="D847" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E847">
         <v>1.374892838979973</v>
@@ -44091,7 +44094,7 @@
         <v>1.11144261739278</v>
       </c>
       <c r="D848" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E848">
         <v>1.374892838979973</v>
@@ -44141,7 +44144,7 @@
         <v>1.121506754071059</v>
       </c>
       <c r="D849" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E849">
         <v>1.376430778741959</v>
@@ -44191,7 +44194,7 @@
         <v>1.123101696245606</v>
       </c>
       <c r="D850" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E850">
         <v>1.376430778741959</v>
@@ -44241,7 +44244,7 @@
         <v>1.129283172644927</v>
       </c>
       <c r="D851" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E851">
         <v>1.383732110650542</v>
@@ -44291,7 +44294,7 @@
         <v>1.130978133064797</v>
       </c>
       <c r="D852" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E852">
         <v>1.383732110650542</v>
@@ -44341,7 +44344,7 @@
         <v>1.144579073971883</v>
       </c>
       <c r="D853" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E853">
         <v>1.392963125695944</v>
@@ -44377,7 +44380,7 @@
         <v>1</v>
       </c>
       <c r="P853" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -44391,7 +44394,7 @@
         <v>1.139114835929584</v>
       </c>
       <c r="D854" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E854">
         <v>1.392963125695944</v>
@@ -44427,7 +44430,7 @@
         <v>1</v>
       </c>
       <c r="P854" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -44441,7 +44444,7 @@
         <v>1.145025542269967</v>
       </c>
       <c r="D855" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E855">
         <v>1.392963125695944</v>
@@ -44477,7 +44480,7 @@
         <v>1</v>
       </c>
       <c r="P855" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -44491,7 +44494,7 @@
         <v>1.143138475936015</v>
       </c>
       <c r="D856" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E856">
         <v>1.391660789391072</v>
@@ -44527,7 +44530,7 @@
         <v>1</v>
       </c>
       <c r="P856" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -44541,7 +44544,7 @@
         <v>1.137727758563779</v>
       </c>
       <c r="D857" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E857">
         <v>1.391660789391072</v>
@@ -44577,7 +44580,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -44591,7 +44594,7 @@
         <v>1.143629544792485</v>
       </c>
       <c r="D858" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E858">
         <v>1.391660789391072</v>
@@ -44627,7 +44630,7 @@
         <v>1</v>
       </c>
       <c r="P858" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -44641,7 +44644,7 @@
         <v>1.131505792342425</v>
       </c>
       <c r="D859" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E859">
         <v>1.381144555306465</v>
@@ -44677,7 +44680,7 @@
         <v>1</v>
       </c>
       <c r="P859" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -44691,7 +44694,7 @@
         <v>1.126527248973667</v>
       </c>
       <c r="D860" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E860">
         <v>1.381144555306465</v>
@@ -44727,7 +44730,7 @@
         <v>1</v>
       </c>
       <c r="P860" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -44741,7 +44744,7 @@
         <v>1.132357006201793</v>
       </c>
       <c r="D861" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E861">
         <v>1.381144555306465</v>
@@ -44777,7 +44780,7 @@
         <v>1</v>
       </c>
       <c r="P861" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -44791,7 +44794,7 @@
         <v>1.114803832336027</v>
       </c>
       <c r="D862" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E862">
         <v>1.366045569789845</v>
@@ -44827,7 +44830,7 @@
         <v>1</v>
       </c>
       <c r="P862" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -44841,7 +44844,7 @@
         <v>1.110445795221376</v>
       </c>
       <c r="D863" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E863">
         <v>1.366045569789845</v>
@@ -44877,7 +44880,7 @@
         <v>1</v>
       </c>
       <c r="P863" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -44891,7 +44894,7 @@
         <v>1.116172134740484</v>
       </c>
       <c r="D864" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E864">
         <v>1.366045569789845</v>
@@ -44927,7 +44930,7 @@
         <v>1</v>
       </c>
       <c r="P864" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="865" spans="1:16">
@@ -44941,7 +44944,7 @@
         <v>1.101718133543261</v>
       </c>
       <c r="D865" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E865">
         <v>1.35421577397719</v>
@@ -44991,7 +44994,7 @@
         <v>1.097846252420911</v>
       </c>
       <c r="D866" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E866">
         <v>1.35421577397719</v>
@@ -45041,7 +45044,7 @@
         <v>1.103491565941303</v>
       </c>
       <c r="D867" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E867">
         <v>1.35421577397719</v>
@@ -45091,7 +45094,7 @@
         <v>1.084534164772634</v>
       </c>
       <c r="D868" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E868">
         <v>1.338681040599409</v>
@@ -45141,7 +45144,7 @@
         <v>1.08130069735074</v>
       </c>
       <c r="D869" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E869">
         <v>1.338681040599409</v>
@@ -45191,7 +45194,7 @@
         <v>1.086839608587723</v>
       </c>
       <c r="D870" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E870">
         <v>1.338681040599409</v>
@@ -45241,7 +45244,7 @@
         <v>1.07235571069141</v>
       </c>
       <c r="D871" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E871">
         <v>1.327671416476445</v>
@@ -45291,7 +45294,7 @@
         <v>1.088696953559964</v>
       </c>
       <c r="D872" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E872">
         <v>1.327671416476445</v>
@@ -45341,7 +45344,7 @@
         <v>1.06957469357594</v>
       </c>
       <c r="D873" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E873">
         <v>1.327671416476445</v>
@@ -45391,7 +45394,7 @@
         <v>1.075038196428518</v>
       </c>
       <c r="D874" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E874">
         <v>1.327671416476445</v>
@@ -45441,7 +45444,7 @@
         <v>1.076132566465557</v>
       </c>
       <c r="D875" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E875">
         <v>1.313669935448096</v>
@@ -45491,7 +45494,7 @@
         <v>1.073448765316761</v>
       </c>
       <c r="D876" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E876">
         <v>1.313669935448096</v>
@@ -45541,7 +45544,7 @@
         <v>1.054662157275198</v>
       </c>
       <c r="D877" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E877">
         <v>1.313669935448096</v>
@@ -45591,7 +45594,7 @@
         <v>1.060029759572787</v>
       </c>
       <c r="D878" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E878">
         <v>1.313669935448096</v>
@@ -45641,7 +45644,7 @@
         <v>1.061571721219004</v>
       </c>
       <c r="D879" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E879">
         <v>1.297934195612342</v>
@@ -45677,7 +45680,7 @@
         <v>1</v>
       </c>
       <c r="P879" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -45691,7 +45694,7 @@
         <v>1.058941809590195</v>
       </c>
       <c r="D880" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E880">
         <v>1.297934195612342</v>
@@ -45727,7 +45730,7 @@
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -45741,7 +45744,7 @@
         <v>1.056311897961385</v>
       </c>
       <c r="D881" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E881">
         <v>1.297934195612342</v>
@@ -45777,7 +45780,7 @@
         <v>1</v>
       </c>
       <c r="P881" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -45791,7 +45794,7 @@
         <v>1.03790251655972</v>
       </c>
       <c r="D882" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E882">
         <v>1.297934195612342</v>
@@ -45827,7 +45830,7 @@
         <v>1</v>
       </c>
       <c r="P882" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -45841,7 +45844,7 @@
         <v>1.043162339817339</v>
       </c>
       <c r="D883" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E883">
         <v>1.297934195612342</v>
@@ -45877,7 +45880,7 @@
         <v>1</v>
       </c>
       <c r="P883" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -45891,7 +45894,7 @@
         <v>1.044697705712403</v>
       </c>
       <c r="D884" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E884">
         <v>1.282536656462568</v>
@@ -45941,7 +45944,7 @@
         <v>1.042120525382052</v>
       </c>
       <c r="D885" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E885">
         <v>1.282536656462568</v>
@@ -45991,7 +45994,7 @@
         <v>1.039543345051701</v>
       </c>
       <c r="D886" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E886">
         <v>1.282536656462568</v>
@@ -46041,7 +46044,7 @@
         <v>1.021503082739242</v>
       </c>
       <c r="D887" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E887">
         <v>1.282536656462568</v>
@@ -46091,7 +46094,7 @@
         <v>1.026657443399945</v>
       </c>
       <c r="D888" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E888">
         <v>1.282536656462568</v>
@@ -46141,7 +46144,7 @@
         <v>1.035750491248459</v>
       </c>
       <c r="D889" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E889">
         <v>1.274372323264219</v>
@@ -46191,7 +46194,7 @@
         <v>1.033201270963308</v>
       </c>
       <c r="D890" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E890">
         <v>1.274372323264219</v>
@@ -46241,7 +46244,7 @@
         <v>1.030652050678156</v>
       </c>
       <c r="D891" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E891">
         <v>1.274372323264219</v>
@@ -46291,7 +46294,7 @@
         <v>1.012807508682096</v>
       </c>
       <c r="D892" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E892">
         <v>1.274372323264219</v>
@@ -46341,7 +46344,7 @@
         <v>1.017905949252399</v>
       </c>
       <c r="D893" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E893">
         <v>1.274372323264219</v>
@@ -46391,7 +46394,7 @@
         <v>1.026969934496414</v>
       </c>
       <c r="D894" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E894">
         <v>1.266360065227978</v>
@@ -46441,7 +46444,7 @@
         <v>1.024448153451113</v>
       </c>
       <c r="D895" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E895">
         <v>1.266360065227978</v>
@@ -46491,7 +46494,7 @@
         <v>1.021926372405812</v>
       </c>
       <c r="D896" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E896">
         <v>1.266360065227978</v>
@@ -46541,7 +46544,7 @@
         <v>1.004273905088703</v>
       </c>
       <c r="D897" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E897">
         <v>1.266360065227978</v>
@@ -46591,7 +46594,7 @@
         <v>1.009317467179305</v>
       </c>
       <c r="D898" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E898">
         <v>1.266360065227978</v>
@@ -46641,7 +46644,7 @@
         <v>1.016953994743684</v>
       </c>
       <c r="D899" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E899">
         <v>1.257220520203612</v>
@@ -46691,7 +46694,7 @@
         <v>1.014463513510111</v>
       </c>
       <c r="D900" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E900">
         <v>1.257220520203612</v>
@@ -46741,7 +46744,7 @@
         <v>1.011973032276536</v>
       </c>
       <c r="D901" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E901">
         <v>1.257220520203612</v>
@@ -46791,7 +46794,7 @@
         <v>0.9945396636415187</v>
       </c>
       <c r="D902" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E902">
         <v>1.257220520203612</v>
@@ -46841,7 +46844,7 @@
         <v>0.9995206261086667</v>
       </c>
       <c r="D903" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E903">
         <v>1.257220520203612</v>
@@ -46891,7 +46894,7 @@
         <v>1.008059645465003</v>
       </c>
       <c r="D904" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E904">
         <v>1.249104426486816</v>
@@ -46927,7 +46930,7 @@
         <v>1</v>
       </c>
       <c r="P904" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -46941,7 +46944,7 @@
         <v>1.005596959072925</v>
       </c>
       <c r="D905" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E905">
         <v>1.249104426486816</v>
@@ -46977,7 +46980,7 @@
         <v>1</v>
       </c>
       <c r="P905" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="906" spans="1:16">
@@ -46991,7 +46994,7 @@
         <v>1.003134272680847</v>
       </c>
       <c r="D906" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E906">
         <v>1.249104426486816</v>
@@ -47027,7 +47030,7 @@
         <v>1</v>
       </c>
       <c r="P906" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="907" spans="1:16">
@@ -47041,7 +47044,7 @@
         <v>0.9858954679363001</v>
       </c>
       <c r="D907" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E907">
         <v>1.249104426486816</v>
@@ -47077,7 +47080,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47091,7 +47094,7 @@
         <v>0.9908208407204566</v>
       </c>
       <c r="D908" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E908">
         <v>1.249104426486816</v>
@@ -47127,7 +47130,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47141,7 +47144,7 @@
         <v>0.9960816841826143</v>
       </c>
       <c r="D909" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E909">
         <v>1.240394519690669</v>
@@ -47191,7 +47194,7 @@
         <v>0.9936488262384677</v>
       </c>
       <c r="D910" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E910">
         <v>1.240394519690669</v>
@@ -47241,7 +47244,7 @@
         <v>0.9766188206294455</v>
       </c>
       <c r="D911" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E911">
         <v>1.240394519690669</v>
@@ -47291,7 +47294,7 @@
         <v>1.011785498407512</v>
       </c>
       <c r="D912" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E912">
         <v>1.238683539418219</v>
@@ -47327,7 +47330,7 @@
         <v>1</v>
       </c>
       <c r="P912" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="913" spans="1:16">
@@ -47341,7 +47344,7 @@
         <v>0.9917854984075123</v>
       </c>
       <c r="D913" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E913">
         <v>1.238683539418219</v>
@@ -47377,7 +47380,7 @@
         <v>1</v>
       </c>
       <c r="P913" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="914" spans="1:16">
@@ -47391,7 +47394,7 @@
         <v>0.9747965094488569</v>
       </c>
       <c r="D914" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E914">
         <v>1.238683539418219</v>
@@ -47427,7 +47430,7 @@
         <v>1</v>
       </c>
       <c r="P914" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="915" spans="1:16">
@@ -47441,7 +47444,7 @@
         <v>0.9895236162769416</v>
       </c>
       <c r="D915" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E915">
         <v>1.236606591046752</v>
@@ -47491,7 +47494,7 @@
         <v>0.9725844171765061</v>
       </c>
       <c r="D916" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E916">
         <v>1.236606591046752</v>
@@ -47541,7 +47544,7 @@
         <v>1.016001093919045</v>
       </c>
       <c r="D917" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E917">
         <v>1.235590913010603</v>
@@ -47591,7 +47594,7 @@
         <v>0.9715026505010194</v>
       </c>
       <c r="D918" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E918">
         <v>1.235590913010603</v>
@@ -47641,7 +47644,7 @@
         <v>0.9628937332844463</v>
       </c>
       <c r="D919" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E919">
         <v>1.227507942505011</v>
@@ -47741,7 +47744,7 @@
         <v>0.9669427290346406</v>
       </c>
       <c r="D921" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E921">
         <v>1.231309571955354</v>
@@ -47777,7 +47780,7 @@
         <v>1</v>
       </c>
       <c r="P921" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="922" spans="1:16">
@@ -47827,7 +47830,7 @@
         <v>1</v>
       </c>
       <c r="P922" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="923" spans="1:16">
@@ -47841,7 +47844,7 @@
         <v>0.9612228371305722</v>
       </c>
       <c r="D923" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E923">
         <v>1.22593912682356</v>
@@ -47891,7 +47894,7 @@
         <v>1.237288472079801</v>
       </c>
       <c r="D924" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E924">
         <v>1.250604999861428</v>
@@ -47941,7 +47944,7 @@
         <v>0.9601377554156305</v>
       </c>
       <c r="D925" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E925">
         <v>1.224920336274483</v>
@@ -47991,7 +47994,7 @@
         <v>1.254439792935777</v>
       </c>
       <c r="D926" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E926">
         <v>1.104439792935777</v>
@@ -48041,7 +48044,7 @@
         <v>1.236384818818805</v>
       </c>
       <c r="D927" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E927">
         <v>1.247345905496217</v>
@@ -48091,7 +48094,7 @@
         <v>0.9583201757710231</v>
       </c>
       <c r="D928" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E928">
         <v>1.223213798473115</v>
@@ -48127,7 +48130,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48141,7 +48144,7 @@
         <v>1.252709877904253</v>
       </c>
       <c r="D929" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E929">
         <v>1.102709877904253</v>
@@ -48177,7 +48180,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -48191,7 +48194,7 @@
         <v>1.234871143166222</v>
       </c>
       <c r="D930" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E930">
         <v>1.23350496444616</v>
@@ -48227,7 +48230,7 @@
         <v>1</v>
       </c>
       <c r="P930" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="931" spans="1:16">
@@ -48241,7 +48244,7 @@
         <v>1.240343364302424</v>
       </c>
       <c r="D931" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E931">
         <v>1.090343364302424</v>
@@ -48277,7 +48280,7 @@
         <v>1</v>
       </c>
       <c r="P931" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="932" spans="1:16">
@@ -48291,7 +48294,7 @@
         <v>1.224050443764621</v>
       </c>
       <c r="D932" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E932">
         <v>1.186382684860237</v>
@@ -48327,7 +48330,7 @@
         <v>1</v>
       </c>
       <c r="P932" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="933" spans="1:16">
@@ -48341,7 +48344,7 @@
         <v>1.227449448289665</v>
       </c>
       <c r="D933" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E933">
         <v>1.077449448289665</v>
@@ -48391,7 +48394,7 @@
         <v>1.212768267253457</v>
       </c>
       <c r="D934" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E934">
         <v>1.188190906116365</v>
@@ -48441,7 +48444,7 @@
         <v>1.210071809950706</v>
       </c>
       <c r="D935" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E935">
         <v>1.060071809950706</v>
@@ -48491,7 +48494,7 @@
         <v>1.197562833706868</v>
       </c>
       <c r="D936" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E936">
         <v>1.17864294438321</v>
@@ -48541,7 +48544,7 @@
         <v>1.197720450979888</v>
       </c>
       <c r="D937" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E937">
         <v>1.047720450979888</v>
@@ -48591,7 +48594,7 @@
         <v>1.21019066030693</v>
       </c>
       <c r="D938" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E938">
         <v>1.183625926006459</v>
@@ -48641,7 +48644,7 @@
         <v>1.184248867201116</v>
       </c>
       <c r="D939" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E939">
         <v>1.034248867201116</v>
@@ -48677,7 +48680,7 @@
         <v>1</v>
       </c>
       <c r="P939" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="940" spans="1:16">
@@ -48691,7 +48694,7 @@
         <v>1.198539560822586</v>
       </c>
       <c r="D940" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E940">
         <v>1.172111362844197</v>
@@ -48727,7 +48730,7 @@
         <v>1</v>
       </c>
       <c r="P940" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -48741,7 +48744,7 @@
         <v>1.171446180170475</v>
       </c>
       <c r="D941" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E941">
         <v>1.021446180170476</v>
@@ -48791,7 +48794,7 @@
         <v>1.187466966633925</v>
       </c>
       <c r="D942" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E942">
         <v>1.16906904528027</v>
@@ -48841,7 +48844,7 @@
         <v>1.240503155607362</v>
       </c>
       <c r="D943" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E943">
         <v>1.014807968741445</v>
@@ -48941,7 +48944,7 @@
         <v>1.235403401208414</v>
       </c>
       <c r="D945" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E945">
         <v>1.010061027539908</v>
@@ -48991,7 +48994,7 @@
         <v>0.9835728916604509</v>
       </c>
       <c r="D946" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E946">
         <v>1.080596619901537</v>
@@ -49141,7 +49144,7 @@
         <v>1.230889933284905</v>
       </c>
       <c r="D949" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E949">
         <v>1.005859812114251</v>
@@ -49177,7 +49180,7 @@
         <v>1</v>
       </c>
       <c r="P949" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -49191,7 +49194,7 @@
         <v>0.9894852225976498</v>
       </c>
       <c r="D950" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E950">
         <v>1.076736043564447</v>
@@ -49227,7 +49230,7 @@
         <v>1</v>
       </c>
       <c r="P950" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="951" spans="1:16">
@@ -49241,7 +49244,7 @@
         <v>1.173986864531244</v>
       </c>
       <c r="D951" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E951">
         <v>1.171940040841669</v>
@@ -49277,7 +49280,7 @@
         <v>1</v>
       </c>
       <c r="P951" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="952" spans="1:16">
@@ -49291,7 +49294,7 @@
         <v>1.165799569772944</v>
       </c>
       <c r="D952" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E952">
         <v>1.171940040841669</v>
@@ -49327,7 +49330,7 @@
         <v>1</v>
       </c>
       <c r="P952" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="953" spans="1:16">
@@ -49341,7 +49344,7 @@
         <v>1.227551935798349</v>
       </c>
       <c r="D953" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E953">
         <v>1.002752745271419</v>
@@ -49377,7 +49380,7 @@
         <v>1</v>
       </c>
       <c r="P953" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -49391,7 +49394,7 @@
         <v>0.9864621305343539</v>
       </c>
       <c r="D954" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E954">
         <v>1.09573559369169</v>
@@ -49427,7 +49430,7 @@
         <v>1</v>
       </c>
       <c r="P954" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -49441,7 +49444,7 @@
         <v>0.990171515797289</v>
       </c>
       <c r="D955" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E955">
         <v>1.09573559369169</v>
@@ -49477,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -49527,7 +49530,7 @@
         <v>1</v>
       </c>
       <c r="P956" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -49577,7 +49580,7 @@
         <v>1</v>
       </c>
       <c r="P957" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -49591,7 +49594,7 @@
         <v>1.22180323805558</v>
       </c>
       <c r="D958" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E958">
         <v>0.9974017561775215</v>
@@ -49627,7 +49630,7 @@
         <v>1</v>
       </c>
       <c r="P958" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -49641,7 +49644,7 @@
         <v>0.9952922611198693</v>
       </c>
       <c r="D959" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E959">
         <v>1.09089077924181</v>
@@ -49677,7 +49680,7 @@
         <v>1</v>
       </c>
       <c r="P959" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="960" spans="1:16">
@@ -49691,7 +49694,7 @@
         <v>0.9851097693571154</v>
       </c>
       <c r="D960" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E960">
         <v>1.09089077924181</v>
@@ -49727,7 +49730,7 @@
         <v>1</v>
       </c>
       <c r="P960" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="961" spans="1:16">
@@ -49741,7 +49744,7 @@
         <v>0.9991462677096661</v>
       </c>
       <c r="D961" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E961">
         <v>1.09089077924181</v>
@@ -49777,7 +49780,7 @@
         <v>1</v>
       </c>
       <c r="P961" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="962" spans="1:16">
@@ -49791,7 +49794,7 @@
         <v>1.166671789126505</v>
       </c>
       <c r="D962" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E962">
         <v>1.182544044892577</v>
@@ -49827,7 +49830,7 @@
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -49841,7 +49844,7 @@
         <v>1.158598792421404</v>
       </c>
       <c r="D963" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E963">
         <v>1.182544044892577</v>
@@ -49877,7 +49880,7 @@
         <v>1</v>
       </c>
       <c r="P963" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="964" spans="1:16">
@@ -49891,7 +49894,7 @@
         <v>1.212919597257383</v>
       </c>
       <c r="D964" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E964">
         <v>0.9891327068810867</v>
@@ -49927,7 +49930,7 @@
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -49941,7 +49944,7 @@
         <v>0.9871908276875514</v>
       </c>
       <c r="D965" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E965">
         <v>1.083403937311254</v>
@@ -49977,7 +49980,7 @@
         <v>1</v>
       </c>
       <c r="P965" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -49991,7 +49994,7 @@
         <v>0.9772876956983256</v>
       </c>
       <c r="D966" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E966">
         <v>1.083403937311254</v>
@@ -50027,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="P966" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -50041,7 +50044,7 @@
         <v>0.9912683220961709</v>
       </c>
       <c r="D967" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E967">
         <v>1.083403937311254</v>
@@ -50077,7 +50080,7 @@
         <v>1</v>
       </c>
       <c r="P967" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -50091,7 +50094,7 @@
         <v>1.159520178924183</v>
       </c>
       <c r="D968" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E968">
         <v>1.189617046934958</v>
@@ -50127,7 +50130,7 @@
         <v>1</v>
       </c>
       <c r="P968" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="969" spans="1:16">
@@ -50141,7 +50144,7 @@
         <v>1.15956861292957</v>
       </c>
       <c r="D969" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E969">
         <v>1.189617046934958</v>
@@ -50177,7 +50180,7 @@
         <v>1</v>
       </c>
       <c r="P969" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="970" spans="1:16">
@@ -50191,7 +50194,7 @@
         <v>1.257308802712848</v>
       </c>
       <c r="D970" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E970">
         <v>1.030450961015733</v>
@@ -50241,7 +50244,7 @@
         <v>1.027671549643793</v>
       </c>
       <c r="D971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E971">
         <v>1.120813707946677</v>
@@ -50291,7 +50294,7 @@
         <v>1.016372530690559</v>
       </c>
       <c r="D972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E972">
         <v>1.120813707946677</v>
@@ -50341,7 +50344,7 @@
         <v>1.030632334481205</v>
       </c>
       <c r="D973" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E973">
         <v>1.120813707946677</v>
@@ -50391,7 +50394,7 @@
         <v>1.195254885202796</v>
       </c>
       <c r="D974" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E974">
         <v>1.253306356772945</v>
@@ -50441,7 +50444,7 @@
         <v>1.194605375726179</v>
       </c>
       <c r="D975" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E975">
         <v>1.253306356772945</v>
@@ -50491,7 +50494,7 @@
         <v>1.222475473830856</v>
       </c>
       <c r="D976" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E976">
         <v>1.253306356772945</v>
@@ -50541,7 +50544,7 @@
         <v>1.067079688062062</v>
       </c>
       <c r="D977" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E977">
         <v>1.157232263450457</v>
@@ -50591,7 +50594,7 @@
         <v>1.05442176778406</v>
       </c>
       <c r="D978" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E978">
         <v>1.157232263450457</v>
@@ -50641,7 +50644,7 @@
         <v>1.06895335183966</v>
       </c>
       <c r="D979" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E979">
         <v>1.157232263450457</v>
@@ -50691,7 +50694,7 @@
         <v>1.240979591005654</v>
       </c>
       <c r="D980" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E980">
         <v>1.293790086672051</v>
@@ -50741,7 +50744,7 @@
         <v>1.256448006950053</v>
       </c>
       <c r="D981" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E981">
         <v>1.293790086672051</v>
@@ -50791,7 +50794,7 @@
         <v>1.059661138765405</v>
       </c>
       <c r="D982" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E982">
         <v>1.150376500652167</v>
@@ -50841,7 +50844,7 @@
         <v>1.047259030532115</v>
       </c>
       <c r="D983" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E983">
         <v>1.150376500652167</v>
@@ -50891,7 +50894,7 @@
         <v>1.061739452178773</v>
       </c>
       <c r="D984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E984">
         <v>1.150376500652167</v>
@@ -50941,7 +50944,7 @@
         <v>1.234533127478903</v>
       </c>
       <c r="D985" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E985">
         <v>1.265572284185587</v>
@@ -50991,7 +50994,7 @@
         <v>1.250052705832245</v>
       </c>
       <c r="D986" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E986">
         <v>1.265572284185587</v>
@@ -51041,7 +51044,7 @@
         <v>1.075657304091317</v>
       </c>
       <c r="D987" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E987">
         <v>1.165159163780941</v>
@@ -51091,7 +51094,7 @@
         <v>1.062703603950237</v>
       </c>
       <c r="D988" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E988">
         <v>1.165159163780941</v>
@@ -51141,7 +51144,7 @@
         <v>1.077294343978453</v>
       </c>
       <c r="D989" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E989">
         <v>1.165159163780941</v>
@@ -51191,7 +51194,7 @@
         <v>1.248433243555213</v>
       </c>
       <c r="D990" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E990">
         <v>1.320888803385917</v>
@@ -51241,7 +51244,7 @@
         <v>1.263842503526997</v>
       </c>
       <c r="D991" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E991">
         <v>1.320888803385917</v>
@@ -51291,7 +51294,7 @@
         <v>1.098090492285582</v>
       </c>
       <c r="D992" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E992">
         <v>1.185890523905296</v>
@@ -51341,7 +51344,7 @@
         <v>1.084363233930907</v>
       </c>
       <c r="D993" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E993">
         <v>1.185890523905296</v>
@@ -51391,7 +51394,7 @@
         <v>1.099108685601842</v>
       </c>
       <c r="D994" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E994">
         <v>1.185890523905296</v>
@@ -51441,7 +51444,7 @@
         <v>1.257417813879686</v>
       </c>
       <c r="D995" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E995">
         <v>1.324199652183141</v>
@@ -51491,7 +51494,7 @@
         <v>1.283181458866881</v>
       </c>
       <c r="D996" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E996">
         <v>1.324199652183141</v>
@@ -51541,7 +51544,7 @@
         <v>1.122411838629428</v>
       </c>
       <c r="D997" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E997">
         <v>1.208366802595471</v>
@@ -51577,7 +51580,7 @@
         <v>1</v>
       </c>
       <c r="P997" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="998" spans="1:16">
@@ -51591,7 +51594,7 @@
         <v>1.107845913159448</v>
       </c>
       <c r="D998" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E998">
         <v>1.208366802595471</v>
@@ -51627,7 +51630,7 @@
         <v>1</v>
       </c>
       <c r="P998" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -51641,7 +51644,7 @@
         <v>1.122759098253443</v>
       </c>
       <c r="D999" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E999">
         <v>1.208366802595471</v>
@@ -51677,7 +51680,7 @@
         <v>1</v>
       </c>
       <c r="P999" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
@@ -51691,7 +51694,7 @@
         <v>1.278887692031495</v>
       </c>
       <c r="D1000" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E1000">
         <v>1.344495396373522</v>
@@ -51727,7 +51730,7 @@
         <v>1</v>
       </c>
       <c r="P1000" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -51741,7 +51744,7 @@
         <v>1.304148136749506</v>
       </c>
       <c r="D1001" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E1001">
         <v>1.344495396373522</v>
@@ -51777,7 +51780,7 @@
         <v>1</v>
       </c>
       <c r="P1001" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
@@ -51791,7 +51794,7 @@
         <v>1.122220333696158</v>
       </c>
       <c r="D1002" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1002">
         <v>1.208189825622656</v>
@@ -51841,7 +51844,7 @@
         <v>1.132749147474248</v>
       </c>
       <c r="D1003" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1003">
         <v>1.208189825622656</v>
@@ -51891,7 +51894,7 @@
         <v>1.122572876214885</v>
       </c>
       <c r="D1004" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1004">
         <v>1.208189825622656</v>
@@ -51941,7 +51944,7 @@
         <v>1.288894910660109</v>
       </c>
       <c r="D1005" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E1005">
         <v>1.281350842845269</v>
@@ -51991,7 +51994,7 @@
         <v>1.303983046289791</v>
       </c>
       <c r="D1006" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E1006">
         <v>1.281350842845269</v>
@@ -52041,7 +52044,7 @@
         <v>1.134966943752146</v>
       </c>
       <c r="D1007" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1007">
         <v>1.2081312400197</v>
@@ -52091,7 +52094,7 @@
         <v>1.122511230169983</v>
       </c>
       <c r="D1008" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1008">
         <v>1.2081312400197</v>
@@ -52141,7 +52144,7 @@
         <v>1.288839822705091</v>
       </c>
       <c r="D1009" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1009">
         <v>1.238662677033743</v>
@@ -52191,7 +52194,7 @@
         <v>1.303928395540765</v>
       </c>
       <c r="D1010" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1010">
         <v>1.238662677033743</v>
@@ -52341,7 +52344,7 @@
         <v>1.282751934376318</v>
       </c>
       <c r="D1013" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1013">
         <v>1.227341266147183</v>
@@ -52391,7 +52394,7 @@
         <v>1.297888823786029</v>
       </c>
       <c r="D1014" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1014">
         <v>1.227341266147183</v>
@@ -52541,7 +52544,7 @@
         <v>1.276141365858975</v>
       </c>
       <c r="D1017" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1017">
         <v>1.147031854825652</v>
@@ -52591,7 +52594,7 @@
         <v>1.29133072009819</v>
       </c>
       <c r="D1018" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1018">
         <v>1.147031854825652</v>
@@ -52741,7 +52744,7 @@
         <v>1.270985402069007</v>
       </c>
       <c r="D1021" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1021">
         <v>1.141528068081599</v>
@@ -52791,7 +52794,7 @@
         <v>1.286215676655761</v>
       </c>
       <c r="D1022" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1022">
         <v>1.141528068081599</v>
@@ -52941,7 +52944,7 @@
         <v>1.269303485413408</v>
       </c>
       <c r="D1025" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1025">
         <v>1.139732688794471</v>
@@ -52991,7 +52994,7 @@
         <v>1.284547108545048</v>
       </c>
       <c r="D1026" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1026">
         <v>1.139732688794471</v>
@@ -53041,7 +53044,7 @@
         <v>1.106380007833733</v>
       </c>
       <c r="D1027" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E1027">
         <v>1.122110877228652</v>
@@ -53191,7 +53194,7 @@
         <v>1.273488223735226</v>
       </c>
       <c r="D1030" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1030">
         <v>1.144199730891968</v>
@@ -53241,7 +53244,7 @@
         <v>1.288698634657963</v>
       </c>
       <c r="D1031" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1031">
         <v>1.144199730891968</v>
@@ -53441,7 +53444,7 @@
         <v>1.282774735672161</v>
       </c>
       <c r="D1035" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1035">
         <v>1.154112713872267</v>
@@ -53491,7 +53494,7 @@
         <v>1.297911444119207</v>
       </c>
       <c r="D1036" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1036">
         <v>1.154112713872267</v>
@@ -53691,7 +53694,7 @@
         <v>1.293899320600928</v>
       </c>
       <c r="D1040" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1040">
         <v>1.165987766831943</v>
@@ -53741,7 +53744,7 @@
         <v>1.308947738691397</v>
       </c>
       <c r="D1041" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1041">
         <v>1.165987766831943</v>
@@ -53791,7 +53794,7 @@
         <v>1.133318303515302</v>
       </c>
       <c r="D1042" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E1042">
         <v>1.108173049243895</v>
@@ -53841,7 +53844,7 @@
         <v>1.140842512560536</v>
       </c>
       <c r="D1043" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E1043">
         <v>1.108173049243895</v>
@@ -53941,7 +53944,7 @@
         <v>1.300452153110048</v>
       </c>
       <c r="D1045" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1045">
         <v>1.172982655502393</v>
@@ -53991,7 +53994,7 @@
         <v>1.315448564593302</v>
       </c>
       <c r="D1046" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1046">
         <v>1.172982655502393</v>
@@ -54191,7 +54194,7 @@
         <v>1.307095532415471</v>
       </c>
       <c r="D1050" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1050">
         <v>1.180074199284769</v>
@@ -54241,7 +54244,7 @@
         <v>1.322039218666142</v>
       </c>
       <c r="D1051" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1051">
         <v>1.180074199284769</v>
@@ -54291,7 +54294,7 @@
         <v>1.147771297407421</v>
       </c>
       <c r="D1052" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1052">
         <v>1.170074199284769</v>
@@ -54341,7 +54344,7 @@
         <v>1.155243140532757</v>
       </c>
       <c r="D1053" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1053">
         <v>1.170074199284769</v>
@@ -54441,7 +54444,7 @@
         <v>1.308271871419795</v>
       </c>
       <c r="D1055" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1055">
         <v>1.181329894491765</v>
@@ -54491,7 +54494,7 @@
         <v>1.323206221646622</v>
       </c>
       <c r="D1056" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1056">
         <v>1.181329894491765</v>
@@ -54691,7 +54694,7 @@
         <v>1.312779169603768</v>
       </c>
       <c r="D1060" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1060">
         <v>1.186141256442117</v>
@@ -54741,7 +54744,7 @@
         <v>1.327677747622786</v>
       </c>
       <c r="D1061" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1061">
         <v>1.186141256442117</v>
@@ -54941,7 +54944,7 @@
         <v>1.322826679845409</v>
       </c>
       <c r="D1065" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1065">
         <v>1.196866574914345</v>
@@ -54991,7 +54994,7 @@
         <v>1.337645515719651</v>
       </c>
       <c r="D1066" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1066">
         <v>1.196866574914345</v>
@@ -55241,7 +55244,7 @@
         <v>1.335363706995991</v>
       </c>
       <c r="D1071" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1071">
         <v>1.210249353896514</v>
@@ -55291,7 +55294,7 @@
         <v>1.350083042654753</v>
       </c>
       <c r="D1072" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1072">
         <v>1.210249353896514</v>
@@ -55341,7 +55344,7 @@
         <v>1.178731679090848</v>
       </c>
       <c r="D1073" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1073">
         <v>1.148731679090848</v>
@@ -55391,7 +55394,7 @@
         <v>1.186091346920229</v>
       </c>
       <c r="D1074" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1074">
         <v>1.148731679090848</v>
@@ -55441,7 +55444,7 @@
         <v>1.177609021725895</v>
       </c>
       <c r="D1075" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1075">
         <v>1.148731679090848</v>
@@ -55491,7 +55494,7 @@
         <v>1.116652675602705</v>
       </c>
       <c r="D1076" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1076">
         <v>1.148731679090848</v>
@@ -55577,7 +55580,7 @@
         <v>1</v>
       </c>
       <c r="P1077" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1078" spans="1:16">
@@ -55591,7 +55594,7 @@
         <v>1.351096625100867</v>
       </c>
       <c r="D1078" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1078">
         <v>1.227043619651322</v>
@@ -55627,7 +55630,7 @@
         <v>1</v>
       </c>
       <c r="P1078" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1079" spans="1:16">
@@ -55641,7 +55644,7 @@
         <v>1.365691096330225</v>
       </c>
       <c r="D1079" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1079">
         <v>1.227043619651322</v>
@@ -55677,7 +55680,7 @@
         <v>1</v>
       </c>
       <c r="P1079" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1080" spans="1:16">
@@ -55691,7 +55694,7 @@
         <v>1.195962970348569</v>
       </c>
       <c r="D1080" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1080">
         <v>1.170557441577927</v>
@@ -55727,7 +55730,7 @@
         <v>1</v>
       </c>
       <c r="P1080" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1081" spans="1:16">
@@ -55741,7 +55744,7 @@
         <v>1.203260205963248</v>
       </c>
       <c r="D1081" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1081">
         <v>1.170557441577927</v>
@@ -55777,7 +55780,7 @@
         <v>1</v>
       </c>
       <c r="P1081" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1082" spans="1:16">
@@ -55791,7 +55794,7 @@
         <v>1.194340855266001</v>
       </c>
       <c r="D1082" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1082">
         <v>1.170557441577927</v>
@@ -55827,7 +55830,7 @@
         <v>1</v>
       </c>
       <c r="P1082" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1083" spans="1:16">
@@ -55841,7 +55844,7 @@
         <v>1.134071263504531</v>
       </c>
       <c r="D1083" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1083">
         <v>1.170557441577927</v>
@@ -55877,7 +55880,7 @@
         <v>1</v>
       </c>
       <c r="P1083" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1084" spans="1:16">
@@ -55891,7 +55894,7 @@
         <v>1.215244956578382</v>
       </c>
       <c r="D1084" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1084">
         <v>1.296261164407824</v>
@@ -55941,7 +55944,7 @@
         <v>1.371708259070043</v>
       </c>
       <c r="D1085" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1085">
         <v>1.249045720991435</v>
@@ -55991,7 +55994,7 @@
         <v>1.386139145902821</v>
       </c>
       <c r="D1086" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1086">
         <v>1.249045720991435</v>
@@ -56041,7 +56044,7 @@
         <v>1.218537617076714</v>
       </c>
       <c r="D1087" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1087">
         <v>1.166891286827548</v>
@@ -56091,7 +56094,7 @@
         <v>1.204106730243937</v>
       </c>
       <c r="D1088" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1088">
         <v>1.166891286827548</v>
@@ -56141,7 +56144,7 @@
         <v>1.216261164407824</v>
       </c>
       <c r="D1089" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1089">
         <v>1.166891286827548</v>
@@ -56191,7 +56194,7 @@
         <v>1.156891286827548</v>
       </c>
       <c r="D1090" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1090">
         <v>1.166891286827548</v>
@@ -56241,7 +56244,7 @@
         <v>1.23615079006772</v>
       </c>
       <c r="D1091" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1091">
         <v>1.316129119638826</v>
@@ -56291,7 +56294,7 @@
         <v>1.39039006772009</v>
       </c>
       <c r="D1092" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1092">
         <v>1.268987810383747</v>
@@ -56341,7 +56344,7 @@
         <v>1.404672686230248</v>
       </c>
       <c r="D1093" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1093">
         <v>1.268987810383747</v>
@@ -56391,7 +56394,7 @@
         <v>1.238998645598194</v>
       </c>
       <c r="D1094" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1094">
         <v>1.18615079006772</v>
@@ -56441,7 +56444,7 @@
         <v>1.224716027088036</v>
       </c>
       <c r="D1095" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1095">
         <v>1.18615079006772</v>
@@ -56491,7 +56494,7 @@
         <v>1.236129119638826</v>
       </c>
       <c r="D1096" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1096">
         <v>1.18615079006772</v>
@@ -56541,7 +56544,7 @@
         <v>1.177574717832957</v>
       </c>
       <c r="D1097" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1097">
         <v>1.18615079006772</v>
@@ -56627,7 +56630,7 @@
         <v>1</v>
       </c>
       <c r="P1098" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1099" spans="1:16">
@@ -56677,7 +56680,7 @@
         <v>1</v>
       </c>
       <c r="P1099" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1100" spans="1:16">
@@ -56691,7 +56694,7 @@
         <v>1.937494467393991</v>
       </c>
       <c r="D1100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1100">
         <v>1.880574923333384</v>
@@ -56727,7 +56730,7 @@
         <v>1</v>
       </c>
       <c r="P1100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1101" spans="1:16">
@@ -56741,7 +56744,7 @@
         <v>1.939788734824297</v>
       </c>
       <c r="D1101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1101">
         <v>1.880574923333384</v>
@@ -56777,7 +56780,7 @@
         <v>1</v>
       </c>
       <c r="P1101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1102" spans="1:16">
@@ -56791,7 +56794,7 @@
         <v>1.965940461260661</v>
       </c>
       <c r="D1102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1102">
         <v>1.880574923333384</v>
@@ -56827,7 +56830,7 @@
         <v>1</v>
       </c>
       <c r="P1102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1103" spans="1:16">
@@ -56841,7 +56844,7 @@
         <v>1.829030102642477</v>
       </c>
       <c r="D1103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1103">
         <v>1.813637008387933</v>
@@ -56877,7 +56880,7 @@
         <v>1</v>
       </c>
       <c r="P1103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1104" spans="1:16">
@@ -56991,7 +56994,7 @@
         <v>1.946853326419202</v>
       </c>
       <c r="D1106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1106">
         <v>1.889766659876002</v>
@@ -57041,7 +57044,7 @@
         <v>1.949782659283362</v>
       </c>
       <c r="D1107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1107">
         <v>1.889766659876002</v>
@@ -57091,7 +57094,7 @@
         <v>1.838522659653762</v>
       </c>
       <c r="D1108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1108">
         <v>1.825199992592003</v>
@@ -57241,7 +57244,7 @@
         <v>1.95800612006104</v>
       </c>
       <c r="D1111" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1111">
         <v>1.900720296488521</v>
@@ -57291,7 +57294,7 @@
         <v>1.96169224963661</v>
       </c>
       <c r="D1112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1112">
         <v>1.900720296488521</v>
@@ -57391,7 +57394,7 @@
         <v>1.976425332462588</v>
       </c>
       <c r="D1114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1114">
         <v>1.908893872560905</v>
@@ -57427,7 +57430,7 @@
         <v>1</v>
       </c>
       <c r="P1114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1115" spans="1:16">
@@ -57441,7 +57444,7 @@
         <v>1.970450500383935</v>
       </c>
       <c r="D1115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1115">
         <v>1.908893872560905</v>
@@ -57477,7 +57480,7 @@
         <v>1</v>
       </c>
       <c r="P1115" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1116" spans="1:16">
@@ -57491,7 +57494,7 @@
         <v>1.969412748501915</v>
       </c>
       <c r="D1116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1116">
         <v>1.911923235135809</v>
@@ -57527,7 +57530,7 @@
         <v>1</v>
       </c>
       <c r="P1116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1117" spans="1:16">
@@ -57541,7 +57544,7 @@
         <v>1.973872899293116</v>
       </c>
       <c r="D1117" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1117">
         <v>1.911923235135809</v>
@@ -57577,7 +57580,7 @@
         <v>1</v>
       </c>
       <c r="P1117" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1118" spans="1:16">
@@ -57591,7 +57594,7 @@
         <v>1.8614043591948</v>
       </c>
       <c r="D1118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1118">
         <v>1.826860315332443</v>
@@ -57627,7 +57630,7 @@
         <v>1</v>
       </c>
       <c r="P1118" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1119" spans="1:16">
@@ -57641,7 +57644,7 @@
         <v>1.860408553848357</v>
       </c>
       <c r="D1119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1119">
         <v>1.826860315332443</v>
@@ -57677,7 +57680,7 @@
         <v>1</v>
       </c>
       <c r="P1119" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1120" spans="1:16">
@@ -57691,7 +57694,7 @@
         <v>1.98265187917201</v>
       </c>
       <c r="D1120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1120">
         <v>1.922352645346225</v>
@@ -57741,7 +57744,7 @@
         <v>1.973541335597354</v>
       </c>
       <c r="D1121" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1121">
         <v>1.914730025848484</v>
@@ -57791,7 +57794,7 @@
         <v>1.98245238995482</v>
       </c>
       <c r="D1122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1122">
         <v>1.914730025848484</v>
@@ -57841,7 +57844,7 @@
         <v>1.987797373558897</v>
       </c>
       <c r="D1123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1123">
         <v>1.914730025848484</v>
@@ -57891,7 +57894,7 @@
         <v>1.874630281239889</v>
       </c>
       <c r="D1124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1124">
         <v>1.834430792022699</v>
@@ -57941,7 +57944,7 @@
         <v>1.873541335597354</v>
       </c>
       <c r="D1125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1125">
         <v>1.834430792022699</v>
@@ -57991,7 +57994,7 @@
         <v>1.992307709800765</v>
       </c>
       <c r="D1126" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1126">
         <v>1.922072832446666</v>
@@ -58027,7 +58030,7 @@
         <v>1</v>
       </c>
       <c r="P1126" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1127" spans="1:16">
@@ -58041,7 +58044,7 @@
         <v>1.983934252533648</v>
       </c>
       <c r="D1127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1127">
         <v>1.924864962577139</v>
@@ -58077,7 +58080,7 @@
         <v>1</v>
       </c>
       <c r="P1127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1128" spans="1:16">
@@ -58091,7 +58094,7 @@
         <v>1.99277159826036</v>
       </c>
       <c r="D1128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1128">
         <v>1.924864962577139</v>
@@ -58127,7 +58130,7 @@
         <v>1</v>
       </c>
       <c r="P1128" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1129" spans="1:16">
@@ -58141,7 +58144,7 @@
         <v>1.998816813856598</v>
       </c>
       <c r="D1129" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1129">
         <v>1.924864962577139</v>
@@ -58177,7 +58180,7 @@
         <v>1</v>
       </c>
       <c r="P1129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1130" spans="1:16">
@@ -58191,7 +58194,7 @@
         <v>1.861840888216869</v>
       </c>
       <c r="D1130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E1130">
         <v>1.825560795266531</v>
@@ -58227,7 +58230,7 @@
         <v>1</v>
       </c>
       <c r="P1130" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1131" spans="1:16">
@@ -58241,7 +58244,7 @@
         <v>1.866259561080225</v>
       </c>
       <c r="D1131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E1131">
         <v>1.825560795266531</v>
@@ -58277,7 +58280,7 @@
         <v>1</v>
       </c>
       <c r="P1131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1132" spans="1:16">
@@ -58291,7 +58294,7 @@
         <v>1.9976828030887</v>
       </c>
       <c r="D1132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1132">
         <v>1.928145456924638</v>
@@ -58341,7 +58344,7 @@
         <v>1.989719658286311</v>
       </c>
       <c r="D1133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1133">
         <v>1.930506758967147</v>
@@ -58391,7 +58394,7 @@
         <v>1.99851597276655</v>
       </c>
       <c r="D1134" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1134">
         <v>1.930506758967147</v>
@@ -58441,7 +58444,7 @@
         <v>2.00495098520428</v>
       </c>
       <c r="D1135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1135">
         <v>1.930506758967147</v>
@@ -58491,7 +58494,7 @@
         <v>1.867728872085713</v>
       </c>
       <c r="D1136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1136">
         <v>1.851339928644997</v>
@@ -58541,7 +58544,7 @@
         <v>1.872127029325833</v>
       </c>
       <c r="D1137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1137">
         <v>1.851339928644997</v>
@@ -58591,7 +58594,7 @@
         <v>1.994610894753869</v>
       </c>
       <c r="D1138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1138">
         <v>1.935276581763525</v>
@@ -58641,7 +58644,7 @@
         <v>2.003372519613771</v>
       </c>
       <c r="D1139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1139">
         <v>1.935276581763525</v>
@@ -58691,7 +58694,7 @@
         <v>2.010137083444705</v>
       </c>
       <c r="D1140" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1140">
         <v>1.935276581763525</v>
@@ -58741,7 +58744,7 @@
         <v>1.872706832604115</v>
       </c>
       <c r="D1141" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1141">
         <v>1.85642195802441</v>
@@ -58791,7 +58794,7 @@
         <v>1.877087645034066</v>
       </c>
       <c r="D1142" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1142">
         <v>1.85642195802441</v>
@@ -58841,7 +58844,7 @@
         <v>1.873945207744214</v>
       </c>
       <c r="D1143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1143">
         <v>1.85642195802441</v>
@@ -58891,7 +58894,7 @@
         <v>2.001444148820168</v>
       </c>
       <c r="D1144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1144">
         <v>1.941940216048037</v>
@@ -58941,7 +58944,7 @@
         <v>2.010157310885273</v>
       </c>
       <c r="D1145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1145">
         <v>1.941940216048037</v>
@@ -58991,7 +58994,7 @@
         <v>2.017382271266774</v>
       </c>
       <c r="D1146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1146">
         <v>1.941940216048037</v>
@@ -59041,7 +59044,7 @@
         <v>1.879661243657405</v>
       </c>
       <c r="D1147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1147">
         <v>1.875304662624853</v>
@@ -59091,7 +59094,7 @@
         <v>1.884017824689958</v>
       </c>
       <c r="D1148" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1148">
         <v>1.875304662624853</v>
@@ -59141,7 +59144,7 @@
         <v>1.8809480815923</v>
       </c>
       <c r="D1149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1149">
         <v>1.875304662624853</v>
@@ -59191,7 +59194,7 @@
         <v>1.874312528169116</v>
       </c>
       <c r="D1150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1150">
         <v>1.875304662624853</v>
@@ -59241,7 +59244,7 @@
         <v>2.006198361354792</v>
       </c>
       <c r="D1151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1151">
         <v>1.920538083477648</v>
@@ -59277,7 +59280,7 @@
         <v>1</v>
       </c>
       <c r="P1151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1152" spans="1:16">
@@ -59291,7 +59294,7 @@
         <v>2.014877805600503</v>
       </c>
       <c r="D1152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1152">
         <v>1.920538083477648</v>
@@ -59327,7 +59330,7 @@
         <v>1</v>
       </c>
       <c r="P1152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1153" spans="1:16">
@@ -59341,7 +59344,7 @@
         <v>2.022423085266251</v>
       </c>
       <c r="D1153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1153">
         <v>1.920538083477648</v>
@@ -59377,7 +59380,7 @@
         <v>1</v>
       </c>
       <c r="P1153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1154" spans="1:16">
@@ -59391,7 +59394,7 @@
         <v>1.884499750740515</v>
       </c>
       <c r="D1154" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1154">
         <v>1.90016002861766</v>
@@ -59427,7 +59430,7 @@
         <v>1</v>
       </c>
       <c r="P1154" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1155" spans="1:16">
@@ -59441,7 +59444,7 @@
         <v>1.888839472863371</v>
       </c>
       <c r="D1155" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1155">
         <v>1.90016002861766</v>
@@ -59477,7 +59480,7 @@
         <v>1</v>
       </c>
       <c r="P1155" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1156" spans="1:16">
@@ -59491,7 +59494,7 @@
         <v>1.885820306494805</v>
       </c>
       <c r="D1156" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1156">
         <v>1.90016002861766</v>
@@ -59527,7 +59530,7 @@
         <v>1</v>
       </c>
       <c r="P1156" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1157" spans="1:16">
@@ -59541,7 +59544,7 @@
         <v>1.879403918897685</v>
       </c>
       <c r="D1157" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1157">
         <v>1.90016002861766</v>
@@ -59577,7 +59580,7 @@
         <v>1</v>
       </c>
       <c r="P1157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1158" spans="1:16">
@@ -59591,7 +59594,7 @@
         <v>2.010391211405586</v>
       </c>
       <c r="D1158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1158">
         <v>1.92471606526585</v>
@@ -59627,7 +59630,7 @@
         <v>1</v>
       </c>
       <c r="P1158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1159" spans="1:16">
@@ -59641,7 +59644,7 @@
         <v>2.019040919126114</v>
       </c>
       <c r="D1159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1159">
         <v>1.92471606526585</v>
@@ -59677,7 +59680,7 @@
         <v>1</v>
       </c>
       <c r="P1159" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1160" spans="1:16">
@@ -59691,7 +59694,7 @@
         <v>2.0268686957811</v>
       </c>
       <c r="D1160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1160">
         <v>1.92471606526585</v>
@@ -59727,7 +59730,7 @@
         <v>1</v>
       </c>
       <c r="P1160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1161" spans="1:16">
@@ -59741,7 +59744,7 @@
         <v>2.001741503685059</v>
       </c>
       <c r="D1161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1161">
         <v>1.92471606526585</v>
@@ -59777,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="P1161" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1162" spans="1:16">
@@ -59791,7 +59794,7 @@
         <v>1.888766942104267</v>
       </c>
       <c r="D1162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1162">
         <v>1.911741503685059</v>
@@ -59827,7 +59830,7 @@
         <v>1</v>
       </c>
       <c r="P1162" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1163" spans="1:16">
@@ -59841,7 +59844,7 @@
         <v>1.893091795964531</v>
       </c>
       <c r="D1163" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1163">
         <v>1.911741503685059</v>
@@ -59877,7 +59880,7 @@
         <v>1</v>
       </c>
       <c r="P1163" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1164" spans="1:16">
@@ -59891,7 +59894,7 @@
         <v>1.890117234383739</v>
       </c>
       <c r="D1164" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1164">
         <v>1.911741503685059</v>
@@ -59927,7 +59930,7 @@
         <v>1</v>
       </c>
       <c r="P1164" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1165" spans="1:16">
@@ -59941,7 +59944,7 @@
         <v>1.883894134200309</v>
       </c>
       <c r="D1165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1165">
         <v>1.911741503685059</v>
@@ -59977,7 +59980,7 @@
         <v>1</v>
       </c>
       <c r="P1165" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1166" spans="1:16">
@@ -59991,7 +59994,7 @@
         <v>2.011093407240181</v>
       </c>
       <c r="D1166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1166">
         <v>1.925415771044294</v>
@@ -60027,7 +60030,7 @@
         <v>1</v>
       </c>
       <c r="P1166" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1167" spans="1:16">
@@ -60041,7 +60044,7 @@
         <v>2.019738134848406</v>
       </c>
       <c r="D1167" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1167">
         <v>1.925415771044294</v>
@@ -60077,7 +60080,7 @@
         <v>1</v>
       </c>
       <c r="P1167" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1168" spans="1:16">
@@ -60091,7 +60094,7 @@
         <v>2.027613222570262</v>
       </c>
       <c r="D1168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1168">
         <v>1.925415771044294</v>
@@ -60127,7 +60130,7 @@
         <v>1</v>
       </c>
       <c r="P1168" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1169" spans="1:16">
@@ -60141,7 +60144,7 @@
         <v>2.002448679631955</v>
       </c>
       <c r="D1169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1169">
         <v>1.925415771044294</v>
@@ -60177,7 +60180,7 @@
         <v>1</v>
       </c>
       <c r="P1169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1170" spans="1:16">
@@ -60191,7 +60194,7 @@
         <v>1.889481588219616</v>
       </c>
       <c r="D1170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1170">
         <v>1.939738134848406</v>
@@ -60227,7 +60230,7 @@
         <v>1</v>
       </c>
       <c r="P1170" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1171" spans="1:16">
@@ -60241,7 +60244,7 @@
         <v>1.893803952023729</v>
       </c>
       <c r="D1171" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1171">
         <v>1.939738134848406</v>
@@ -60277,7 +60280,7 @@
         <v>1</v>
       </c>
       <c r="P1171" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1172" spans="1:16">
@@ -60291,7 +60294,7 @@
         <v>1.890836860611391</v>
       </c>
       <c r="D1172" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1172">
         <v>1.939738134848406</v>
@@ -60327,7 +60330,7 @@
         <v>1</v>
       </c>
       <c r="P1172" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1173" spans="1:16">
@@ -60341,7 +60344,7 @@
         <v>1.884646131157924</v>
       </c>
       <c r="D1173" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1173">
         <v>1.939738134848406</v>
@@ -60377,7 +60380,7 @@
         <v>1</v>
       </c>
       <c r="P1173" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1174" spans="1:16">
@@ -60391,7 +60394,7 @@
         <v>2.007480754369489</v>
       </c>
       <c r="D1174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1174">
         <v>1.921815928999385</v>
@@ -60427,7 +60430,7 @@
         <v>1</v>
       </c>
       <c r="P1174" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1175" spans="1:16">
@@ -60441,7 +60444,7 @@
         <v>2.01615110362928</v>
       </c>
       <c r="D1175" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1175">
         <v>1.921815928999385</v>
@@ -60477,7 +60480,7 @@
         <v>1</v>
       </c>
       <c r="P1175" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1176" spans="1:16">
@@ -60491,7 +60494,7 @@
         <v>2.023782785661266</v>
       </c>
       <c r="D1176" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1176">
         <v>1.921815928999385</v>
@@ -60527,7 +60530,7 @@
         <v>1</v>
       </c>
       <c r="P1176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1177" spans="1:16">
@@ -60541,7 +60544,7 @@
         <v>1.998810405109698</v>
       </c>
       <c r="D1177" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1177">
         <v>1.921815928999385</v>
@@ -60577,7 +60580,7 @@
         <v>1</v>
       </c>
       <c r="P1177" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1178" spans="1:16">
@@ -60591,7 +60594,7 @@
         <v>1.885804881220012</v>
       </c>
       <c r="D1178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1178">
         <v>1.960486278259175</v>
@@ -60627,7 +60630,7 @@
         <v>1</v>
       </c>
       <c r="P1178" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1179" spans="1:16">
@@ -60641,7 +60644,7 @@
         <v>1.890140055849908</v>
       </c>
       <c r="D1179" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1179">
         <v>1.960486278259175</v>
@@ -60677,7 +60680,7 @@
         <v>1</v>
       </c>
       <c r="P1179" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1180" spans="1:16">
@@ -60691,7 +60694,7 @@
         <v>1.887134531960221</v>
       </c>
       <c r="D1180" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1180">
         <v>1.960486278259175</v>
@@ -60727,7 +60730,7 @@
         <v>1</v>
       </c>
       <c r="P1180" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1181" spans="1:16">
@@ -60741,7 +60744,7 @@
         <v>1.880777261771581</v>
       </c>
       <c r="D1181" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1181">
         <v>1.960486278259175</v>
@@ -60777,7 +60780,7 @@
         <v>1</v>
       </c>
       <c r="P1181" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1182" spans="1:16">
@@ -60791,7 +60794,7 @@
         <v>2.006181164717055</v>
       </c>
       <c r="D1182" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1182">
         <v>1.920520947820895</v>
@@ -60841,7 +60844,7 @@
         <v>2.014860730924735</v>
       </c>
       <c r="D1183" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1183">
         <v>1.920520947820895</v>
@@ -60891,7 +60894,7 @@
         <v>2.022404851951771</v>
       </c>
       <c r="D1184" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1184">
         <v>1.920520947820895</v>
@@ -60941,7 +60944,7 @@
         <v>1.997501598509374</v>
       </c>
       <c r="D1185" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1185">
         <v>1.920520947820895</v>
@@ -60991,7 +60994,7 @@
         <v>1.884482249197854</v>
       </c>
       <c r="D1186" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1186">
         <v>1.959200514028576</v>
@@ -61041,7 +61044,7 @@
         <v>1.888822032301694</v>
       </c>
       <c r="D1187" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1187">
         <v>1.959200514028576</v>
@@ -61091,7 +61094,7 @@
         <v>1.885802682990174</v>
       </c>
       <c r="D1188" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1188">
         <v>1.959200514028576</v>
@@ -61141,7 +61144,7 @@
         <v>1.87938550264025</v>
       </c>
       <c r="D1189" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1189">
         <v>1.959200514028576</v>
@@ -61191,7 +61194,7 @@
         <v>2.006106119714744</v>
       </c>
       <c r="D1190" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1190">
         <v>1.920446168935614</v>
@@ -61227,7 +61230,7 @@
         <v>1</v>
       </c>
       <c r="P1190" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1191" spans="1:16">
@@ -61241,7 +61244,7 @@
         <v>2.022325282959959</v>
       </c>
       <c r="D1191" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1191">
         <v>1.920446168935614</v>
@@ -61277,7 +61280,7 @@
         <v>1</v>
       </c>
       <c r="P1191" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1192" spans="1:16">
@@ -61291,7 +61294,7 @@
         <v>1.997426021273005</v>
       </c>
       <c r="D1192" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1192">
         <v>1.920446168935614</v>
@@ -61327,7 +61330,7 @@
         <v>1</v>
       </c>
       <c r="P1192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1193" spans="1:16">
@@ -61341,7 +61344,7 @@
         <v>1.884405873610396</v>
       </c>
       <c r="D1193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1193">
         <v>1.959126267377353</v>
@@ -61377,7 +61380,7 @@
         <v>1</v>
       </c>
       <c r="P1193" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1194" spans="1:16">
@@ -61391,7 +61394,7 @@
         <v>1.888745922831266</v>
       </c>
       <c r="D1194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1194">
         <v>1.959126267377353</v>
@@ -61427,7 +61430,7 @@
         <v>1</v>
       </c>
       <c r="P1194" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1195" spans="1:16">
@@ -61441,7 +61444,7 @@
         <v>1.885725775168656</v>
       </c>
       <c r="D1195" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1195">
         <v>1.959126267377353</v>
@@ -61477,7 +61480,7 @@
         <v>1</v>
       </c>
       <c r="P1195" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1196" spans="1:16">
@@ -61491,7 +61494,7 @@
         <v>1.87930513529735</v>
       </c>
       <c r="D1196" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1196">
         <v>1.959126267377353</v>
@@ -61527,7 +61530,7 @@
         <v>1</v>
       </c>
       <c r="P1196" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1197" spans="1:16">
@@ -61541,7 +61544,7 @@
         <v>2.006257767196757</v>
       </c>
       <c r="D1197" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1197">
         <v>1.920597278660598</v>
@@ -61577,7 +61580,7 @@
         <v>1</v>
       </c>
       <c r="P1197" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1198" spans="1:16">
@@ -61591,7 +61594,7 @@
         <v>2.022486072311454</v>
       </c>
       <c r="D1198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1198">
         <v>1.920597278660598</v>
@@ -61627,7 +61630,7 @@
         <v>1</v>
       </c>
       <c r="P1198" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1199" spans="1:16">
@@ -61641,7 +61644,7 @@
         <v>1.997578744269074</v>
       </c>
       <c r="D1199" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1199">
         <v>1.920597278660598</v>
@@ -61677,7 +61680,7 @@
         <v>1</v>
       </c>
       <c r="P1199" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1200" spans="1:16">
@@ -61691,7 +61694,7 @@
         <v>1.88456020987755</v>
       </c>
       <c r="D1200" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1200">
         <v>1.95927630158828</v>
@@ -61727,7 +61730,7 @@
         <v>1</v>
       </c>
       <c r="P1200" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1201" spans="1:16">
@@ -61741,7 +61744,7 @@
         <v>1.888899721341391</v>
       </c>
       <c r="D1201" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1201">
         <v>1.95927630158828</v>
@@ -61777,7 +61780,7 @@
         <v>1</v>
       </c>
       <c r="P1201" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1202" spans="1:16">
@@ -61791,7 +61794,7 @@
         <v>1.885881186949867</v>
       </c>
       <c r="D1202" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1202">
         <v>1.95927630158828</v>
@@ -61827,7 +61830,7 @@
         <v>1</v>
       </c>
       <c r="P1202" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1203" spans="1:16">
@@ -61841,7 +61844,7 @@
         <v>1.87946753791993</v>
       </c>
       <c r="D1203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1203">
         <v>1.95927630158828</v>
@@ -61877,7 +61880,7 @@
         <v>1</v>
       </c>
       <c r="P1203" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1204" spans="1:16">
@@ -61891,7 +61894,7 @@
         <v>2.42201931555944</v>
       </c>
       <c r="D1204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1204">
         <v>2.26277830047654</v>
@@ -61941,7 +61944,7 @@
         <v>2.241758758713061</v>
       </c>
       <c r="D1205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E1205">
         <v>2.229719675186104</v>
@@ -61991,7 +61994,7 @@
         <v>2.23876527263422</v>
       </c>
       <c r="D1206" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E1206">
         <v>2.229719675186104</v>
@@ -62041,7 +62044,7 @@
         <v>2.45795828028637</v>
       </c>
       <c r="D1207" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1207">
         <v>2.294427775865094</v>
@@ -62091,7 +62094,7 @@
         <v>2.273060437668773</v>
       </c>
       <c r="D1208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1208">
         <v>2.251693099472454</v>
@@ -62141,7 +62144,7 @@
         <v>2.270182883734214</v>
       </c>
       <c r="D1209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1209">
         <v>2.251693099472454</v>
@@ -62191,7 +62194,7 @@
         <v>2.151694835313454</v>
       </c>
       <c r="D1210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1210">
         <v>2.111638549843527</v>
@@ -62241,7 +62244,7 @@
         <v>2.151638549843527</v>
       </c>
       <c r="D1211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1211">
         <v>2.111638549843527</v>
@@ -62291,7 +62294,7 @@
         <v>2.125376708109169</v>
       </c>
       <c r="D1212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1212">
         <v>2.08537670810917</v>
@@ -62341,7 +62344,7 @@
         <v>2.100848552222461</v>
       </c>
       <c r="D1213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1213">
         <v>2.060848552222462</v>
@@ -62391,7 +62394,7 @@
         <v>2.075023488585573</v>
       </c>
       <c r="D1214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1214">
         <v>2.035023488585574</v>
@@ -62441,7 +62444,7 @@
         <v>2.041653123537238</v>
       </c>
       <c r="D1215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1215">
         <v>2.001653123537238</v>
@@ -62482,43 +62485,43 @@
     </row>
     <row r="1216" spans="1:16">
       <c r="A1216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1216" t="s">
         <v>183</v>
       </c>
       <c r="C1216">
-        <v>2.000464290973508</v>
+        <v>1.955193320256235</v>
       </c>
       <c r="D1216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1216">
-        <v>2.011653123537238</v>
+        <v>1.980696042050148</v>
       </c>
       <c r="F1216">
         <v>1</v>
       </c>
       <c r="G1216">
-        <v>0.003999535709026491</v>
+        <v>0.004024806679743766</v>
       </c>
       <c r="H1216">
-        <v>0.003988346876462762</v>
+        <v>0.004019303957949851</v>
       </c>
       <c r="I1216">
-        <v>0.01118883256372971</v>
+        <v>0.02550272179391389</v>
       </c>
       <c r="J1216">
-        <v>0.3729610854576461</v>
+        <v>0.3875680448478523</v>
       </c>
       <c r="K1216">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="L1216">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="M1216">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="N1216">
         <v>3</v>
@@ -62527,7 +62530,7 @@
         <v>1</v>
       </c>
       <c r="P1216" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1217" spans="1:16">
@@ -62535,31 +62538,31 @@
         <v>0</v>
       </c>
       <c r="B1217" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1217">
-        <v>1.955193320256235</v>
+        <v>1.917657923007359</v>
       </c>
       <c r="D1217" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1217">
-        <v>1.972944681153191</v>
+        <v>1.943722972849945</v>
       </c>
       <c r="F1217">
         <v>1</v>
       </c>
       <c r="G1217">
-        <v>0.004024806679743766</v>
+        <v>0.004062342076992641</v>
       </c>
       <c r="H1217">
-        <v>0.004027055318846808</v>
+        <v>0.004056277027150055</v>
       </c>
       <c r="I1217">
-        <v>0.01775136089695684</v>
+        <v>0.02606504984258606</v>
       </c>
       <c r="J1217">
-        <v>0.3875680448478523</v>
+        <v>0.4016262460646597</v>
       </c>
       <c r="K1217">
         <v>2.67</v>
@@ -62568,7 +62571,7 @@
         <v>2.99</v>
       </c>
       <c r="M1217">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="N1217">
         <v>3</v>
@@ -62577,7 +62580,7 @@
         <v>1</v>
       </c>
       <c r="P1217" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1218" spans="1:16">
@@ -62585,31 +62588,31 @@
         <v>0</v>
       </c>
       <c r="B1218" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1218">
-        <v>1.917657923007359</v>
+        <v>1.868373374921016</v>
       </c>
       <c r="D1218" t="s">
         <v>326</v>
       </c>
       <c r="E1218">
-        <v>1.935690447928652</v>
+        <v>1.88677507248715</v>
       </c>
       <c r="F1218">
         <v>1</v>
       </c>
       <c r="G1218">
-        <v>0.004062342076992641</v>
+        <v>0.004111626625078985</v>
       </c>
       <c r="H1218">
-        <v>0.004064309552071348</v>
+        <v>0.00411322492751285</v>
       </c>
       <c r="I1218">
-        <v>0.01803252492129293</v>
+        <v>0.01840169756613452</v>
       </c>
       <c r="J1218">
-        <v>0.4016262460646597</v>
+        <v>0.4200848783067358</v>
       </c>
       <c r="K1218">
         <v>2.67</v>
@@ -62635,31 +62638,31 @@
         <v>0</v>
       </c>
       <c r="B1219" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1219">
-        <v>1.868373374921016</v>
+        <v>1.818814899187029</v>
       </c>
       <c r="D1219" t="s">
         <v>326</v>
       </c>
       <c r="E1219">
-        <v>1.88677507248715</v>
+        <v>1.837587821290496</v>
       </c>
       <c r="F1219">
         <v>1</v>
       </c>
       <c r="G1219">
-        <v>0.004111626625078985</v>
+        <v>0.004161185100812972</v>
       </c>
       <c r="H1219">
-        <v>0.00411322492751285</v>
+        <v>0.004162412178709504</v>
       </c>
       <c r="I1219">
-        <v>0.01840169756613452</v>
+        <v>0.01877292210346759</v>
       </c>
       <c r="J1219">
-        <v>0.4200848783067358</v>
+        <v>0.4386461051733976</v>
       </c>
       <c r="K1219">
         <v>2.67</v>
@@ -62685,31 +62688,31 @@
         <v>0</v>
       </c>
       <c r="B1220" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1220">
-        <v>1.818814899187029</v>
+        <v>1.761621842968106</v>
       </c>
       <c r="D1220" t="s">
         <v>326</v>
       </c>
       <c r="E1220">
-        <v>1.837587821290496</v>
+        <v>1.780823177477708</v>
       </c>
       <c r="F1220">
         <v>1</v>
       </c>
       <c r="G1220">
-        <v>0.004161185100812972</v>
+        <v>0.004218378157031894</v>
       </c>
       <c r="H1220">
-        <v>0.004162412178709504</v>
+        <v>0.004219176822522292</v>
       </c>
       <c r="I1220">
-        <v>0.01877292210346759</v>
+        <v>0.01920133450960204</v>
       </c>
       <c r="J1220">
-        <v>0.4386461051733976</v>
+        <v>0.4600667254801102</v>
       </c>
       <c r="K1220">
         <v>2.67</v>
@@ -62727,57 +62730,7 @@
         <v>1</v>
       </c>
       <c r="P1220" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:16">
-      <c r="A1221" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1221">
-        <v>1.761621842968106</v>
-      </c>
-      <c r="D1221" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1221">
-        <v>1.780823177477708</v>
-      </c>
-      <c r="F1221">
-        <v>1</v>
-      </c>
-      <c r="G1221">
-        <v>0.004218378157031894</v>
-      </c>
-      <c r="H1221">
-        <v>0.004219176822522292</v>
-      </c>
-      <c r="I1221">
-        <v>0.01920133450960204</v>
-      </c>
-      <c r="J1221">
-        <v>0.4600667254801102</v>
-      </c>
-      <c r="K1221">
-        <v>2.67</v>
-      </c>
-      <c r="L1221">
-        <v>2.99</v>
-      </c>
-      <c r="M1221">
-        <v>2.65</v>
-      </c>
-      <c r="N1221">
-        <v>3</v>
-      </c>
-      <c r="O1221">
-        <v>1</v>
-      </c>
-      <c r="P1221" t="s">
-        <v>183</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
